--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\opencart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A61196B-2B15-46E9-8DE2-C82302718A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690ABC34-FF1E-4E53-995F-CF5D3600BD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
   </bookViews>
   <sheets>
-    <sheet name="TS_001" sheetId="2" r:id="rId1"/>
-    <sheet name="TS_002" sheetId="3" r:id="rId2"/>
-    <sheet name="TS_003" sheetId="4" r:id="rId3"/>
-    <sheet name="TS_004" sheetId="5" r:id="rId4"/>
+    <sheet name="TS_001 (Register)" sheetId="2" r:id="rId1"/>
+    <sheet name="TS_002(Login)" sheetId="3" r:id="rId2"/>
+    <sheet name="TS_003 (Currency)" sheetId="4" r:id="rId3"/>
+    <sheet name="TS_004 (Contact)" sheetId="5" r:id="rId4"/>
+    <sheet name="TS_005 (My Account)" sheetId="6" r:id="rId5"/>
+    <sheet name="TS_006 (Account)" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="204">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -449,16 +451,6 @@
     <t>All the 3 currencies should be visible along with the currency sign</t>
   </si>
   <si>
-    <t>(TS_003)
-Home Page Currency</t>
-  </si>
-  <si>
-    <t>TC_HPC_001</t>
-  </si>
-  <si>
-    <t>TC_HPC_002</t>
-  </si>
-  <si>
     <t>Validate the rate of products after selecting Pound as an Currency</t>
   </si>
   <si>
@@ -479,12 +471,6 @@
 3. Scroll Down to see the the rates of the product in Pound currency along with the sign.</t>
   </si>
   <si>
-    <t>TC_HPC_003</t>
-  </si>
-  <si>
-    <t>TC_HPC_004</t>
-  </si>
-  <si>
     <t>Validate the rate of products after selecting US Dollar as an Currency</t>
   </si>
   <si>
@@ -508,13 +494,6 @@
 3. The rates of the product must be shown in US Dollar along with the US Dollar  sign</t>
   </si>
   <si>
-    <t>TC_HPCO_001</t>
-  </si>
-  <si>
-    <t>(TS_004)
-Home Page Contact Us</t>
-  </si>
-  <si>
     <t>Validate the working of contact us functionality.</t>
   </si>
   <si>
@@ -528,26 +507,348 @@
     <t>User should Navigate to the Contact Us page.</t>
   </si>
   <si>
-    <t>TC_HPCO_002</t>
-  </si>
-  <si>
     <t>Validate the name and email address is already mentioned in their respective tabs</t>
   </si>
   <si>
     <t>User Should See the Name and Email address is already filled in the in their respective tabs.</t>
   </si>
   <si>
-    <t>TC_HPCO_003</t>
-  </si>
-  <si>
     <t>Validate the functionality of submitting inquiry without filling mendatory fields</t>
+  </si>
+  <si>
+    <t>Name: 
+Email: hamzaali935935@gmail.com
+Enquiry : lorem Espium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name: 
+Email: 
+Enquiry : </t>
+  </si>
+  <si>
+    <t>Warning should be displayed about the empty fields.</t>
+  </si>
+  <si>
+    <t>Warning should be displayed about the empty Name field.</t>
+  </si>
+  <si>
+    <t>1. Click on the phone icon to navigate to the contact us page.
+2. Submit the inquiry with empty fields.
+3. Click on the Submit button.</t>
+  </si>
+  <si>
+    <t>Name: Hamza
+Email: 
+Enquiry : lorem Espium</t>
+  </si>
+  <si>
+    <t>Warning should be displayed about the empty Email field.</t>
+  </si>
+  <si>
+    <t>Warning should be displayed about the empty Enquiry field.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name: Hamza
+Email: hamzaali935935@gmail.com
+Enquiry : </t>
+  </si>
+  <si>
+    <t>Validate the functionality of submitting inquiry without using name.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of submitting inquiry without using Email Address.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of submitting inquiry without using Enquiry field.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of submitting inquiry with using invalid Email Address.</t>
+  </si>
+  <si>
+    <t>Name: Hamza
+Email: hamzaali935935gmail.com,
+Hamzaali935935@gmail.com
+Enquiry : lorem Espium</t>
+  </si>
+  <si>
+    <t>Warning should be displayed about the  Email adress is incorrect.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of submitting inquiry with filling every field with empty spaces.</t>
+  </si>
+  <si>
+    <t>1. Click on the phone icon to navigate to the contact us page.
+2. Enter name in "Your Name" field.
+3. Enter Email in "Email" field.
+4. Enter Enquiry in "Enquiry" field.
+5. Click on the Submit button.</t>
+  </si>
+  <si>
+    <t>Name:  .
+Email:   .
+Enquiry :  .</t>
+  </si>
+  <si>
+    <t>Warning should be displayed for the fields.</t>
+  </si>
+  <si>
+    <t>TC_MA_001</t>
+  </si>
+  <si>
+    <t>Validate the working of My Account drop down display if logged out.</t>
+  </si>
+  <si>
+    <t>Only Login and registered option should be displayed.</t>
+  </si>
+  <si>
+    <t>TC_MA_002</t>
+  </si>
+  <si>
+    <t>Validate the working of My Account drop down display if logged in.</t>
+  </si>
+  <si>
+    <t>Below data should be displayed
+1. My Account.
+2. Order History.
+3.Transactions.
+4.Downloads.
+5.Logout.</t>
+  </si>
+  <si>
+    <t>Validate the working of My Account drop down button "register" functionality</t>
+  </si>
+  <si>
+    <t>1.open the Application URL (https://demo.opencart.com) in any supported browser.
+2. Click on My Account Button from the header.</t>
+  </si>
+  <si>
+    <t>User Should Navigate to the Register page.</t>
+  </si>
+  <si>
+    <t>TC_MA_003</t>
+  </si>
+  <si>
+    <t>Validate the working of My Account drop down button "Login" functionality</t>
+  </si>
+  <si>
+    <t>User Should Navigate to the Login page.</t>
+  </si>
+  <si>
+    <t>TC_MA_004</t>
+  </si>
+  <si>
+    <t>Validate the complete working of My Account &gt; Account functionality</t>
+  </si>
+  <si>
+    <t>1. Click on the My Account  button to see the dropdown data.</t>
+  </si>
+  <si>
+    <t>TC_CF_001</t>
+  </si>
+  <si>
+    <t>TC_CF_002</t>
+  </si>
+  <si>
+    <t>TC_CF_003</t>
+  </si>
+  <si>
+    <t>TC_CF_004</t>
+  </si>
+  <si>
+    <t>TC_CO_001</t>
+  </si>
+  <si>
+    <t>TC_CO_002</t>
+  </si>
+  <si>
+    <t>TC_CO_003</t>
+  </si>
+  <si>
+    <t>TC_CO_004</t>
+  </si>
+  <si>
+    <t>TC_CO_005</t>
+  </si>
+  <si>
+    <t>TC_CO_006</t>
+  </si>
+  <si>
+    <t>TC_CO_007</t>
+  </si>
+  <si>
+    <t>TC_CO_008</t>
+  </si>
+  <si>
+    <t>TC_AF_005</t>
+  </si>
+  <si>
+    <t>(TS_003)
+Currency</t>
+  </si>
+  <si>
+    <t>(TS_004)
+ Contact Us</t>
+  </si>
+  <si>
+    <t>(TS_005)
+ My Account.</t>
+  </si>
+  <si>
+    <t>(TS_006)
+Account</t>
+  </si>
+  <si>
+    <t>1. Click on the My Account  button to see the dropdown data. 
+2. Click on the "Account" option. (ER-01)</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the sub heading of "Account" titled "Edit your account information"</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>My Account &gt; Account</t>
+  </si>
+  <si>
+    <t>My Account &gt; Account &gt; Edit</t>
+  </si>
+  <si>
+    <t>1. Click on the My Account  button to see the dropdown data.
+2. Click on the "Account" option.
+3. Click on the "Edit your account information" link/button</t>
+  </si>
+  <si>
+    <t>1. User should be redirected to the Account Page.
+2. Below mentioned headings should be displayed 
+1. My Accounts.
+2. My Orders.
+3. My Afiliate Account.
+4. News Letter.</t>
+  </si>
+  <si>
+    <t>TC_AF_001</t>
+  </si>
+  <si>
+    <t>TC_AF_002</t>
+  </si>
+  <si>
+    <t>TC_AF_003</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the Home Icon in Edit account information page</t>
+  </si>
+  <si>
+    <t>1. Click on the My Account  button to see the dropdown data.
+2. Click on the "Account" option.
+3. Click on the "Edit your account information" link/button.
+4. Click on the Home Icon in the top left corner of the page.</t>
+  </si>
+  <si>
+    <t>User should be redirected back to main page of the application.</t>
+  </si>
+  <si>
+    <t>TC_AF_004</t>
+  </si>
+  <si>
+    <t>Validate the functionalty of the account button beside the home icon</t>
+  </si>
+  <si>
+    <t>1. Click on the My Account  button to see the dropdown data.
+2. Click on the "Account" option.
+3. Click on the "Edit your account information" link/button.
+4. Click on the Account button beside the home icon of the page.</t>
+  </si>
+  <si>
+    <t>User should be redirected back to the my Account &gt; account page</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Edit Information" button next to home icon and Account button.</t>
+  </si>
+  <si>
+    <t>1. Click on the My Account  button to see the dropdown data.
+2. Click on the "Account" option.
+3. Click on the "Edit your account information" link/button.
+4. Change the name just in the field without clicking "continue button".
+5. Click on the "Edit information" link.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name: abc.
+Last Name: abc
+Email: abc.
+</t>
+  </si>
+  <si>
+    <t>Page should be reloaded and the registered details should be displayed again in their respective fields.</t>
+  </si>
+  <si>
+    <t>1. User should be redirected to "Edit account information page".
+2. Editable fields "First name, Last name and Email" should be displayed along with the registered details.</t>
+  </si>
+  <si>
+    <t>TC_AF_006</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Back button" located below the input fields.</t>
+  </si>
+  <si>
+    <t>1. Click on the My Account  button to see the dropdown data.
+2. Click on the "Account" option.
+3. Click on the "Edit your account information" link/button.
+4.Click on the "Back" button.</t>
+  </si>
+  <si>
+    <t>TC_AF_007</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Edit information" when the "First Name" field is emtpy.</t>
+  </si>
+  <si>
+    <t>Warning should be displayed about the first name.</t>
+  </si>
+  <si>
+    <r>
+      <t>First Name: (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leave Blank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+Last Name: Iqbal
+Email Address: hamzaali935935@gmail.com
+</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Click on the My Account  button to see the dropdown data.
+2. Click on the "Account" option.
+3. Click on the "Edit your account information" link/button.
+4.Leave the "First Name" field blank
+5.Fill the input fields "Last Name and Email Address".
+6.Click on the "Continue" button.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,6 +862,14 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -931,7 +1240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85252F2-3AEE-49F2-BAD6-E960FB08B1A1}">
   <dimension ref="A3:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -1765,7 +2074,7 @@
   <dimension ref="A3:L24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1825,10 +2134,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>101</v>
@@ -1851,25 +2160,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="135" x14ac:dyDescent="0.25">
@@ -1877,25 +2186,25 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="E6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="135" x14ac:dyDescent="0.25">
@@ -1903,25 +2212,25 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2068,10 +2377,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5DFD4C-8D59-4777-A6F8-A9BF350FBD3E}">
-  <dimension ref="A3:L24"/>
+  <dimension ref="A3:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2079,7 +2388,7 @@
     <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" customWidth="1"/>
     <col min="5" max="5" width="37.7109375" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
     <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
     <col min="8" max="8" width="25.85546875" style="5" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
@@ -2131,25 +2440,25 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2157,88 +2466,176 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="B11" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -2318,6 +2715,8 @@
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
@@ -2330,6 +2729,8 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
@@ -2341,6 +2742,656 @@
       <c r="B24" s="3"/>
       <c r="C24" s="1"/>
     </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04EAE3C3-64BE-43DC-AD43-5808A45074C1}">
+  <dimension ref="B3:L25"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="2:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694B4E51-C725-4662-8C4E-E8415D3E6DC8}">
+  <dimension ref="B3:M25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="37.7109375" customWidth="1"/>
+    <col min="7" max="7" width="42.42578125" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\opencart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690ABC34-FF1E-4E53-995F-CF5D3600BD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDC8F47-CA0D-4681-8B62-88811AF0720C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="9" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
   </bookViews>
   <sheets>
     <sheet name="TS_001 (Register)" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,10 @@
     <sheet name="TS_004 (Contact)" sheetId="5" r:id="rId4"/>
     <sheet name="TS_005 (My Account)" sheetId="6" r:id="rId5"/>
     <sheet name="TS_006 (Account)" sheetId="7" r:id="rId6"/>
+    <sheet name="TS_006.1 (Edit Information)" sheetId="8" r:id="rId7"/>
+    <sheet name="TS_006.2 (Change Password)" sheetId="9" r:id="rId8"/>
+    <sheet name="TS_006.3 (modify book entries)" sheetId="10" r:id="rId9"/>
+    <sheet name="TS_006.4 (modify your wishlist)" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="338">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -679,9 +683,6 @@
     <t>TC_CO_008</t>
   </si>
   <si>
-    <t>TC_AF_005</t>
-  </si>
-  <si>
     <t>(TS_003)
 Currency</t>
   </si>
@@ -709,9 +710,6 @@
   </si>
   <si>
     <t>My Account &gt; Account</t>
-  </si>
-  <si>
-    <t>My Account &gt; Account &gt; Edit</t>
   </si>
   <si>
     <t>1. Click on the My Account  button to see the dropdown data.
@@ -730,12 +728,6 @@
     <t>TC_AF_001</t>
   </si>
   <si>
-    <t>TC_AF_002</t>
-  </si>
-  <si>
-    <t>TC_AF_003</t>
-  </si>
-  <si>
     <t>Validate the functionality of the Home Icon in Edit account information page</t>
   </si>
   <si>
@@ -746,9 +738,6 @@
   </si>
   <si>
     <t>User should be redirected back to main page of the application.</t>
-  </si>
-  <si>
-    <t>TC_AF_004</t>
   </si>
   <si>
     <t>Validate the functionalty of the account button beside the home icon</t>
@@ -786,9 +775,6 @@
 2. Editable fields "First name, Last name and Email" should be displayed along with the registered details.</t>
   </si>
   <si>
-    <t>TC_AF_006</t>
-  </si>
-  <si>
     <t>Validate the functionality of the "Back button" located below the input fields.</t>
   </si>
   <si>
@@ -798,13 +784,21 @@
 4.Click on the "Back" button.</t>
   </si>
   <si>
-    <t>TC_AF_007</t>
-  </si>
-  <si>
     <t>Validate the functionality of the "Edit information" when the "First Name" field is emtpy.</t>
   </si>
   <si>
     <t>Warning should be displayed about the first name.</t>
+  </si>
+  <si>
+    <t>1. Click on the My Account  button to see the dropdown data.
+2. Click on the "Account" option.
+3. Click on the "Edit your account information" link/button.
+4.Leave the "First Name" field blank
+5.Fill the input fields "Last Name and Email Address".
+6.Click on the "Continue" button.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Edit information" when the "Last Name" field is emtpy.</t>
   </si>
   <si>
     <r>
@@ -830,18 +824,629 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">)
-Last Name: Iqbal
+Last Name: Khan
 Email Address: hamzaali935935@gmail.com
 </t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">First Name: Ahmed
+Last Name: (Leave Blank)
+Email Address: hamzaali935935@gmail.com
+</t>
+  </si>
+  <si>
+    <t>Warning should be displayed about the Last name.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Edit information" when the "Email" field is emtpy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name: Ahmed
+Last Name: Khan
+Email Address: (Leave Blank)
+</t>
+  </si>
+  <si>
+    <t>Warning should be displayed about the Email Address.</t>
+  </si>
+  <si>
+    <t>TC_EF_002</t>
+  </si>
+  <si>
+    <t>TC_EF_001</t>
+  </si>
+  <si>
+    <t>TC_EF_003</t>
+  </si>
+  <si>
+    <t>TC_EF_004</t>
+  </si>
+  <si>
+    <t>TC_EF_005</t>
+  </si>
+  <si>
+    <t>TC_EF_006</t>
+  </si>
+  <si>
+    <t>TC_EF_007</t>
+  </si>
+  <si>
+    <t>TC_EF_008</t>
+  </si>
+  <si>
+    <t>(TS_006.1)
+Edit Information</t>
+  </si>
+  <si>
+    <t>TC_EF_009</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Edit information" by just changing first name.</t>
+  </si>
+  <si>
+    <t>TC_EF_010</t>
+  </si>
+  <si>
+    <t>TC_EF_011</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Edit information" by just changing last name.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Edit information" by just changing Email Address.</t>
+  </si>
+  <si>
+    <t>TC_EF_012</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Edit information" by  changing all the existing credentials.</t>
+  </si>
+  <si>
     <t>1. Click on the My Account  button to see the dropdown data.
 2. Click on the "Account" option.
 3. Click on the "Edit your account information" link/button.
-4.Leave the "First Name" field blank
-5.Fill the input fields "Last Name and Email Address".
+4. Just change the First name.
+5.Leave the Last Name and Email Address field as it is.
 6.Click on the "Continue" button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name: Ahmed
+Last Name: Iqbal (as it is)
+Email Address: hamzaali935935@gmail.com (as it is)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First name should be changed from the existing one (Hamza) to new one (Ahmed) </t>
+  </si>
+  <si>
+    <t>1. Click on the My Account  button to see the dropdown data.
+2. Click on the "Account" option.
+3. Click on the "Edit your account information" link/button.
+4. Just change the Last name.
+5.Leave the First Name and Email Address field as it is
+6.Click on the "Continue" button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name: Ahmed (as it is)
+Last Name: Khan 
+Email Address: hamzaali935935@gmail.com (as it is)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last name should be changed from the existing one (Iqbal) to new one (Khan) </t>
+  </si>
+  <si>
+    <t>1. Click on the My Account  button to see the dropdown data.
+2. Click on the "Account" option.
+3. Click on the "Edit your account information" link/button.
+4. Just change the Email Address.
+5.Leave the First Name and Last Name field as it is
+6.Click on the "Continue" button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email Address should be changed from the existing one (hamzaali935935@gmail.com) to new one (haroonali935935@gmail.com) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name: Hamza (as it is)
+Last Name: Iqbal (as it is)
+Email Address: haroonali935935@gmail.com
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name: Ahmed 
+Last Name: Khan 
+Email Address: haroonali935935@gmail.com
+</t>
+  </si>
+  <si>
+    <t>All the existing details should be changed to the new ones.</t>
+  </si>
+  <si>
+    <t>1. Click on the My Account  button to see the dropdown data.
+2. Click on the "Account" option.
+3. Click on the "Edit your account information" link/button.
+4. Change all the existing credentials.
+5.Click on the "Continue" button.</t>
+  </si>
+  <si>
+    <t>TC_EF_013</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Edit information" by  leaving all the input fieds with blank spaces</t>
+  </si>
+  <si>
+    <t>1. Click on the My Account  button to see the dropdown data.
+2. Click on the "Account" option.
+3. Click on the "Edit your account information" link/button.
+4. Leave empty spaces in all the input fields.
+5.Click on the "Continue" button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name:   .
+Last Name:   .
+Email Address:   .
+</t>
+  </si>
+  <si>
+    <t>Warning should me displayed about the invalid credentials</t>
+  </si>
+  <si>
+    <t>(TS_006.2)
+Change Password</t>
+  </si>
+  <si>
+    <t>TC_CP_001</t>
+  </si>
+  <si>
+    <t>1. Click on the My Account  button to see the dropdown data.
+2. Click on the "Account" option.
+3. Click on the "Change Password" link/button</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "change password" button</t>
+  </si>
+  <si>
+    <t>1. User should be redirected to "Edit account information page".
+2. Editable fields "Password and confirm password" should be displayed.</t>
+  </si>
+  <si>
+    <t>TC_CP_002</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "change password" by leaving the "password" tab blank.</t>
+  </si>
+  <si>
+    <r>
+      <t>Password: (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leave Blank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+Confirm Password: Ahmed123alikhan.</t>
+    </r>
+  </si>
+  <si>
+    <t>Warning should be displayed about the "Password" field is empty.</t>
+  </si>
+  <si>
+    <t>TC_CP_003</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "change password" by leaving the "Confirm password" tab blank.</t>
+  </si>
+  <si>
+    <r>
+      <t>Password: Ahmed123alikhan.
+Confirm Password: (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leave blank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Warning should be displayed about the "Comfirm Password" field is empty.</t>
+  </si>
+  <si>
+    <t>TC_CP_004</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the change password fields by leaving empty spaces.</t>
+  </si>
+  <si>
+    <t>1. Click on the My Account  button to see the dropdown data.
+2. Click on the "Account" option.
+3. Click on the "Change Password" link/button
+4. Leave the "Password" tab Field.
+5. Fill the "Confirm password field"
+6. Click on the continue button.</t>
+  </si>
+  <si>
+    <t>1. Click on the My Account  button to see the dropdown data.
+2. Click on the "Account" option.
+3. Click on the "Change Password" link/button
+4. Leave the "Confirm Password" tab Field.
+5. Fill the "Password field"
+6. Click on the continue button.</t>
+  </si>
+  <si>
+    <t>1. Click on the My Account  button to see the dropdown data.
+2. Click on the "Account" option.
+3. Click on the "Change Password" link/button
+4. Fill the both tabs with empty spaces.
+5. Click on the continue button.</t>
+  </si>
+  <si>
+    <t>Password:   .
+Confirm Password:   .</t>
+  </si>
+  <si>
+    <t>Warning should be displayed about the "Password and Comfirm Password" field.</t>
+  </si>
+  <si>
+    <t>TC_CP_005</t>
+  </si>
+  <si>
+    <t>Password: aaaa
+Confirm Password: aaaa  .</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the change password fields by filling the field with aplhabets inputs.</t>
+  </si>
+  <si>
+    <t>suggestion should be displayed about the about the strong password.</t>
+  </si>
+  <si>
+    <t>TC_CP_006</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the change password fields by filling the field with numbers inputs.</t>
+  </si>
+  <si>
+    <t>1. Click on the My Account  button to see the dropdown data.
+2. Click on the "Account" option.
+3. Click on the "Change Password" link/button
+4. Fill the both tabs with numbers.
+5. Click on the continue button.</t>
+  </si>
+  <si>
+    <t>1. Click on the My Account  button to see the dropdown data.
+2. Click on the "Account" option.
+3. Click on the "Change Password" link/button
+4. Fill the both tabs with aplhabets.
+5. Click on the continue button.</t>
+  </si>
+  <si>
+    <t>Password: 1234
+Confirm Password: 1234 .</t>
+  </si>
+  <si>
+    <t>Password: *&amp;^%
+Confirm Password: *&amp;^%.</t>
+  </si>
+  <si>
+    <t>1. Click on the My Account  button to see the dropdown data.
+2. Click on the "Account" option.
+3. Click on the "Change Password" link/button
+4. Fill the both tabs with special characters.
+5. Click on the continue button.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the change password fields by filling the field with special characters.</t>
+  </si>
+  <si>
+    <t>TC_CP_007</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the change password fields by setting strong password.</t>
+  </si>
+  <si>
+    <t>1. Click on the My Account  button to see the dropdown data.
+2. Click on the "Account" option.
+3. Click on the "Change Password" link/button
+4. set a strong password.
+5. Click on the continue button.</t>
+  </si>
+  <si>
+    <t>Password: Ahmed123alikhan
+Confirm Password: Ahmed123alikhan.</t>
+  </si>
+  <si>
+    <t>Password should be changed with the given updated input.</t>
+  </si>
+  <si>
+    <t>TC_CP_008</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the change password by login again to the app.</t>
+  </si>
+  <si>
+    <t>User should login to the app and directed to home page.</t>
+  </si>
+  <si>
+    <t>TC_CP_009</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the change password by login again to the app using old password.</t>
+  </si>
+  <si>
+    <t>Password: Hamza123alikhan
+Confirm Password: Hamza123alikhan.</t>
+  </si>
+  <si>
+    <t>Warning should be displayed about th incorrect password</t>
+  </si>
+  <si>
+    <t>TC_EF_014</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the  "Edit information" by login again to the app.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email Address: haroonali935935@gmail.com   .
+</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the  "Edit information" by login again to the app using old Email address.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email Address: hamzaali935935@gmail.com   .
+</t>
+  </si>
+  <si>
+    <t>Warning should be displayed about incorrect Email address</t>
+  </si>
+  <si>
+    <t>TC_EF_015</t>
+  </si>
+  <si>
+    <t>(TS_006.3)
+Modify book entries</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Modify your book entries" link.</t>
+  </si>
+  <si>
+    <t>1. Click on the My Account  button to see the dropdown data.
+2. Click on the "Account" option.
+3. Click on the "Modify your book entries" link/button</t>
+  </si>
+  <si>
+    <t>TC_MB_001</t>
+  </si>
+  <si>
+    <t>TC_MB_002</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Modify your book entries" when no book adress is added'.</t>
+  </si>
+  <si>
+    <t>message should be displayed with "you have no addresses in your account". With back and new address button.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Modify your book entries" when book adress is added'.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "new address" in "Modify your book entries" page.</t>
+  </si>
+  <si>
+    <t>1. Click on the My Account  button to see the dropdown data.
+2. Click on the "Account" option.
+3. Click on the "Modify your book entries" link/button
+4. Click on the new address button.</t>
+  </si>
+  <si>
+    <t>user should directed to the page of add address.</t>
+  </si>
+  <si>
+    <t>TC_MB_003</t>
+  </si>
+  <si>
+    <t>TC_MB_004</t>
+  </si>
+  <si>
+    <t>1. Click on the My Account  button to see the dropdown data.
+2. Click on the "Account" option.
+3. Click on the "Modify your book entries" link/button.</t>
+  </si>
+  <si>
+    <t>the whole address should displayed with an edit and delete icon.</t>
+  </si>
+  <si>
+    <t>TC_MB_005</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Edit Icon" in "Modify your book entries".</t>
+  </si>
+  <si>
+    <t>1. Click on the My Account  button to see the dropdown data.
+2. Click on the "Account" option.
+3. Click on the "Modify your book entries" link/button.
+4.Click on the edit icon.</t>
+  </si>
+  <si>
+    <t>User should be able to edit the address.</t>
+  </si>
+  <si>
+    <t>TC_MB_006</t>
+  </si>
+  <si>
+    <t>Message should be displayed and the existing address should be edited with the new one.</t>
+  </si>
+  <si>
+    <t>TC_MB_007</t>
+  </si>
+  <si>
+    <t>1. Click on the My Account  button to see the dropdown data.
+2. Click on the "Account" option.
+3. Click on the "Modify your book entries" link/button.
+4.Click on the Delete icon.</t>
+  </si>
+  <si>
+    <t>Warning should be displayed about "user must have atleast one address"</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Delete Icon" in "Modify your book entries" with one address.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Delete Icon" in "Modify your book entries" multiple addresses.</t>
+  </si>
+  <si>
+    <t>the address should be deleted after clicking the delete icon</t>
+  </si>
+  <si>
+    <t>TC_MB_008</t>
+  </si>
+  <si>
+    <t>TC_MB_009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the functionality of the "Delete Icon" for the confirmation of deleting address in "Modify your book entries" </t>
+  </si>
+  <si>
+    <t>Confirmation message should be displayed about the deletion of the address.</t>
+  </si>
+  <si>
+    <t>1. User should be redirected to "Account &gt; Address Book" page.</t>
+  </si>
+  <si>
+    <t>TC_MB_010</t>
+  </si>
+  <si>
+    <t>Validate the functionality of add address in modify book entries with filling all the input fields.</t>
+  </si>
+  <si>
+    <t>1.All the region according to the country selected should be displayed.
+2. The address should be added with a notification that the address is added.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of add address in modify book entries with filling just mendotary input fields.</t>
+  </si>
+  <si>
+    <t>1. Click on the My Account  button to see the dropdown data.
+2. Click on the "Account" option.
+3. Click on the "Modify your book entries" link/button
+4. Click on the new address button.
+5. add first name, last name, Company, Address1, Address2, City post Code, Country, Region, State and selecting default address.
+6. click on continue button.</t>
+  </si>
+  <si>
+    <t>1. Click on the My Account  button to see the dropdown data.
+2. Click on the "Account" option.
+3. Click on the "Modify your book entries" link/button
+4. Click on the new address button.
+5. add first name, last name, Company, Address1, , City post Code, Country, Region, State and selecting default address.
+6. Leave Address 2 Empty.
+7. click on continue button.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of add address in modify book entries with leaving all the input fields empty.</t>
+  </si>
+  <si>
+    <t>1. Click on the My Account  button to see the dropdown data.
+2. Click on the "Account" option.
+3. Click on the "Modify your book entries" link/button
+4. Click on the new address button.
+5. Leave all the input fields empty
+7. click on continue button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first name: hamza
+last name: iqbal 
+company: FF steels
+Address 1: peshawar pakistan.
+Address 2  : 
+City : Peshawar
+Post Code: 2500
+Country: Pakistan 
+Reigon: islamabad capital teritory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">first name: hamza
+last name: iqbal 
+company: FF steels
+Address 1: peshawar pakistan.
+Address : islamabad Pakistan.
+City : Peshawar
+Post Code: 2500
+Country: Pakistan 
+Reigon: islamabad capital teritory (ER-01.)
+</t>
+  </si>
+  <si>
+    <t>Warning should be displayed below every respective fields according to their limitations.</t>
+  </si>
+  <si>
+    <t>first name: 
+last name:  
+company: 
+Address 1: .
+Address 2 : .
+City : 
+Post Code: 
+Country:  
+Reigon:</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the Post code by adding alphabets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first name: hamza
+last name: iqbal 
+company: FF steels
+Address 1: peshawar pakistan.
+Address 2  : 
+City : Peshawar
+Post Code: Hamza
+Country: Pakistan 
+Reigon: islamabad capital teritory </t>
+  </si>
+  <si>
+    <t>Warning should be displayed about post code must be numbers</t>
+  </si>
+  <si>
+    <t>TC_MB_011</t>
+  </si>
+  <si>
+    <t>TC_MB_012</t>
+  </si>
+  <si>
+    <t>TC_MB_013</t>
   </si>
 </sst>
 </file>
@@ -1712,6 +2317,310 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6C7363-2D5D-4868-8093-67F7E82ECE55}">
+  <dimension ref="B3:L28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A5:N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="30" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24"/>
+      <c r="G24" s="7"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25"/>
+      <c r="G25" s="7"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26" s="7"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="1"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27" s="7"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+    </row>
+    <row r="28" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="1"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28" s="7"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D7893C-385B-435C-9500-3ED4A927959E}">
   <dimension ref="A3:L24"/>
@@ -2137,7 +3046,7 @@
         <v>157</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>101</v>
@@ -2163,7 +3072,7 @@
         <v>158</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>108</v>
@@ -2189,7 +3098,7 @@
         <v>159</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>106</v>
@@ -2215,7 +3124,7 @@
         <v>160</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>111</v>
@@ -2443,7 +3352,7 @@
         <v>161</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>116</v>
@@ -2469,7 +3378,7 @@
         <v>162</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>120</v>
@@ -2495,7 +3404,7 @@
         <v>163</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>122</v>
@@ -2521,7 +3430,7 @@
         <v>164</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>132</v>
@@ -2547,7 +3456,7 @@
         <v>165</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>133</v>
@@ -2571,7 +3480,7 @@
         <v>166</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>135</v>
@@ -2595,7 +3504,7 @@
         <v>167</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>134</v>
@@ -2619,7 +3528,7 @@
         <v>168</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>138</v>
@@ -2757,7 +3666,7 @@
   <dimension ref="B3:L25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2814,7 +3723,7 @@
         <v>142</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>143</v>
@@ -2837,7 +3746,7 @@
         <v>145</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>148</v>
@@ -2860,7 +3769,7 @@
         <v>151</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>152</v>
@@ -2883,7 +3792,7 @@
         <v>154</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>146</v>
@@ -3033,8 +3942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694B4E51-C725-4662-8C4E-E8415D3E6DC8}">
   <dimension ref="B3:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3058,7 +3967,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>0</v>
@@ -3093,13 +4002,13 @@
     </row>
     <row r="4" spans="2:13" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>155</v>
@@ -3108,174 +4017,72 @@
         <v>107</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>104</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="2:13" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>195</v>
-      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="2:13" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>186</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:13" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>190</v>
-      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:13" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>194</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:13" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>190</v>
-      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="2:13" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>201</v>
-      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -3284,12 +4091,12 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
@@ -3395,4 +4202,1374 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6803A502-0750-40C8-AFEB-FF6B5A00697A}">
+  <dimension ref="B3:L24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="30" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+    </row>
+    <row r="17" spans="2:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="2:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+    </row>
+    <row r="19" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+    </row>
+    <row r="20" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20"/>
+      <c r="G20" s="7"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21"/>
+      <c r="G21" s="7"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22" s="7"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23" s="7"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24" s="7"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4AAFB82-77EE-4783-928F-4A964EE8FE2B}">
+  <dimension ref="B3:L24"/>
+  <sheetViews>
+    <sheetView topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="30" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+    </row>
+    <row r="17" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+    </row>
+    <row r="19" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+    </row>
+    <row r="20" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20"/>
+      <c r="G20" s="7"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21"/>
+      <c r="G21" s="7"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22" s="7"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23" s="7"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24" s="7"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52A0115-4F76-49B9-A20E-AD5BE1DD9878}">
+  <dimension ref="B3:L28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="30" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24"/>
+      <c r="G24" s="7"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25"/>
+      <c r="G25" s="7"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26" s="7"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="1"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27" s="7"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+    </row>
+    <row r="28" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="1"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28" s="7"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\opencart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDC8F47-CA0D-4681-8B62-88811AF0720C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D961E2B-57F8-4E07-A453-FFC1EB2EEDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="9" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="10" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
   </bookViews>
   <sheets>
     <sheet name="TS_001 (Register)" sheetId="2" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="TS_006.2 (Change Password)" sheetId="9" r:id="rId8"/>
     <sheet name="TS_006.3 (modify book entries)" sheetId="10" r:id="rId9"/>
     <sheet name="TS_006.4 (modify your wishlist)" sheetId="11" r:id="rId10"/>
+    <sheet name="TS_009 (Header)" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="401">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -1448,12 +1449,271 @@
   <si>
     <t>TC_MB_013</t>
   </si>
+  <si>
+    <t>TC_HD_001</t>
+  </si>
+  <si>
+    <t>(TS_009)
+Header Desktop</t>
+  </si>
+  <si>
+    <t>all the items relevant to desktop link should be displayed below.</t>
+  </si>
+  <si>
+    <t>TC_HD_002</t>
+  </si>
+  <si>
+    <t>Validate the functionality desktop Link in the header of the home page by clicking desktop link.</t>
+  </si>
+  <si>
+    <t>Validate the functionality desktop Link in the header of the home page by clicking show all folders.</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse over the desktop Icon. .
+2.Click on the Desktop link.</t>
+  </si>
+  <si>
+    <t>1. All the drop down menus and data should be displayed.
+2. all the items relevant to desktop link should be displayed below with the quantity of the products that are  mentioned.</t>
+  </si>
+  <si>
+    <t>TC_HD_003</t>
+  </si>
+  <si>
+    <t>Validate the fucntionality of the compare this product Link.</t>
+  </si>
+  <si>
+    <t>User should navigate to compare this product page.</t>
+  </si>
+  <si>
+    <t>TC_HD_004</t>
+  </si>
+  <si>
+    <t>The Item card should be displayed in grid style.</t>
+  </si>
+  <si>
+    <t>TC_HD_005</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Item card should be displayed in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>grid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> style.</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_HD_006</t>
+  </si>
+  <si>
+    <t>(TS_010)
+Header Desktop</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the sorting Items</t>
+  </si>
+  <si>
+    <t>TC_HD_007</t>
+  </si>
+  <si>
+    <t>All items should be displayed with the ascending order of alphabets.</t>
+  </si>
+  <si>
+    <t>TC_HD_008</t>
+  </si>
+  <si>
+    <t>All items should be displayed with the descending order of alphabets.</t>
+  </si>
+  <si>
+    <t>TC_HD_009</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the Z to A sorting of the products</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the A to Z sorting of the products</t>
+  </si>
+  <si>
+    <t>All items should be displayed with the ascending order of price.</t>
+  </si>
+  <si>
+    <t>TC_HD_010</t>
+  </si>
+  <si>
+    <t>TC_HD_011</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse over the desktop Icon (ER-01). .
+2.Click on the Show all folders link (ER-02).</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse over the desktop Icon  .
+2.Click on the Show all folders link.
+3. Click on the Compare this product.</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse over the desktop Icon  .
+2.Click on the Show all folders link.
+3. Click on the Grid Icon.</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse over the desktop Icon  .
+2.Click on the Show all folders link.
+3. Click on the sort Item.</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse over the desktop Icon  .
+2.Click on the Show all folders link.
+3. Click on the Sort Icon.
+4. Click on the A to Z sorting option.</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse over the desktop Icon  .
+2.Click on the Show all folders link.
+3. Click on the Sort Icon.
+4. Click on the Z to A sorting option.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the item display interface by selecting grid style</t>
+  </si>
+  <si>
+    <t>1. A to Z sorting should be displayed (ascending order).
+2. Z to A sorting should be displayed (descending order)
+3. High to Low should be displayed (ascending order).
+Low to High should be displayed (descending order).</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the High to Low price sorting of the products</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse over the desktop Icon  .
+2.Click on the Show all folders link.
+3. Click on the Sort Icon.
+4. Click on the High to Low sorting option.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the Low to High price sorting of the products</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse over the desktop Icon  .
+2.Click on the Show all folders link.
+3. Click on the Sort Icon.
+4. Click on the Low  to High sorting option.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the number of items displayed by default</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse over the desktop Icon  .
+2.Click on the Show all folders link.
+3. scroll down the page manually to see the number of items.</t>
+  </si>
+  <si>
+    <t>maximum 10 items should be displayed by default.</t>
+  </si>
+  <si>
+    <t>TC_HD_012</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the page numbers on desktop category</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse over the desktop Icon  .
+2.Click on the Show all folders link.
+3. scroll down the to see page numbers
+4. click on page numbers.</t>
+  </si>
+  <si>
+    <t>TC_HD_013</t>
+  </si>
+  <si>
+    <t>user should redirected to previous page i.e page 1.</t>
+  </si>
+  <si>
+    <t>TC_HD_014</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the previous button when on page 1</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse over the desktop Icon  .
+2.Click on the Show all folders link.
+3. scroll down the to see page numbers
+4. click on the page number 2
+5. click on the previous page button.</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse over the desktop Icon  .
+2.Click on the Show all folders link.
+3. scroll down the to see page numbers
+4. click on the page number 1
+5. click on the previous page button.</t>
+  </si>
+  <si>
+    <t>The previous button should be disabled and stop working.</t>
+  </si>
+  <si>
+    <t>TC_HD_015</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse over the desktop Icon  .
+2.Click on the Show all folders link.
+3. scroll down the to see page numbers
+4. click on the page number 1
+5. click on the next page button.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the previous button when pag numer is 2 or onwards.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the next button when on page 1.</t>
+  </si>
+  <si>
+    <t>User should navigate to the next page ie. Page 2 and onwards.</t>
+  </si>
+  <si>
+    <t>TC_HD_016</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse over the desktop Icon  .
+2.Click on the Show all folders link.
+3. scroll down the to see page numbers
+4. click on last page number
+5. click on the next page button.</t>
+  </si>
+  <si>
+    <t>The next button should be disabled and stop working.</t>
+  </si>
+  <si>
+    <t>page should navigate to the selected page number.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the next button when on last page.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1472,6 +1732,14 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFEE0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1503,7 +1771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1527,6 +1795,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2321,7 +2598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6C7363-2D5D-4868-8093-67F7E82ECE55}">
   <dimension ref="B3:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A16" sqref="A5:N16"/>
     </sheetView>
   </sheetViews>
@@ -2615,6 +2892,530 @@
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA00A176-B6B3-414A-BBBE-5C3337E6A6E5}">
+  <dimension ref="B3:L27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="30" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+    </row>
+    <row r="20" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23"/>
+      <c r="G23" s="7"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24"/>
+      <c r="G24" s="7"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25" s="7"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26" s="7"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="1"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27" s="7"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\opencart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D961E2B-57F8-4E07-A453-FFC1EB2EEDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3EADC0-9D46-46DA-98CC-0E4549166648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="10" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="13" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
   </bookViews>
   <sheets>
     <sheet name="TS_001 (Register)" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <sheet name="TS_006.2 (Change Password)" sheetId="9" r:id="rId8"/>
     <sheet name="TS_006.3 (modify book entries)" sheetId="10" r:id="rId9"/>
     <sheet name="TS_006.4 (modify your wishlist)" sheetId="11" r:id="rId10"/>
-    <sheet name="TS_009 (Header)" sheetId="12" r:id="rId11"/>
+    <sheet name="TS_010 (Header Desktop)" sheetId="12" r:id="rId11"/>
+    <sheet name="TS_010.1 (Sub Desktop PC) " sheetId="15" r:id="rId12"/>
+    <sheet name="TS_010.2 (Sub Desktop Mac)" sheetId="13" r:id="rId13"/>
+    <sheet name="TS_011 (Cart)" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="519">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -368,9 +371,6 @@
   </si>
   <si>
     <t>TC_LF_004</t>
-  </si>
-  <si>
-    <t>Validate the Login of the app using registered Email and registered non-registered password.</t>
   </si>
   <si>
     <t>1. Click on my acoount Drop Menu.
@@ -1453,10 +1453,6 @@
     <t>TC_HD_001</t>
   </si>
   <si>
-    <t>(TS_009)
-Header Desktop</t>
-  </si>
-  <si>
     <t>all the items relevant to desktop link should be displayed below.</t>
   </si>
   <si>
@@ -1495,8 +1491,278 @@
     <t>TC_HD_005</t>
   </si>
   <si>
+    <t>TC_HD_006</t>
+  </si>
+  <si>
+    <t>(TS_010)
+Header Desktop</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the sorting Items</t>
+  </si>
+  <si>
+    <t>TC_HD_007</t>
+  </si>
+  <si>
+    <t>All items should be displayed with the ascending order of alphabets.</t>
+  </si>
+  <si>
+    <t>TC_HD_008</t>
+  </si>
+  <si>
+    <t>All items should be displayed with the descending order of alphabets.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the Z to A sorting of the products</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the A to Z sorting of the products</t>
+  </si>
+  <si>
+    <t>All items should be displayed with the ascending order of price.</t>
+  </si>
+  <si>
+    <t>TC_HD_010</t>
+  </si>
+  <si>
+    <t>TC_HD_011</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse over the desktop Icon (ER-01). .
+2.Click on the Show all folders link (ER-02).</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse over the desktop Icon  .
+2.Click on the Show all folders link.
+3. Click on the Compare this product.</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse over the desktop Icon  .
+2.Click on the Show all folders link.
+3. Click on the Grid Icon.</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse over the desktop Icon  .
+2.Click on the Show all folders link.
+3. Click on the sort Item.</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse over the desktop Icon  .
+2.Click on the Show all folders link.
+3. Click on the Sort Icon.
+4. Click on the A to Z sorting option.</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse over the desktop Icon  .
+2.Click on the Show all folders link.
+3. Click on the Sort Icon.
+4. Click on the Z to A sorting option.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the item display interface by selecting grid style</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the High to Low price sorting of the products</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse over the desktop Icon  .
+2.Click on the Show all folders link.
+3. Click on the Sort Icon.
+4. Click on the High to Low sorting option.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the Low to High price sorting of the products</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse over the desktop Icon  .
+2.Click on the Show all folders link.
+3. Click on the Sort Icon.
+4. Click on the Low  to High sorting option.</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse over the desktop Icon  .
+2.Click on the Show all folders link.
+3. scroll down the page manually to see the number of items.</t>
+  </si>
+  <si>
+    <t>maximum 10 items should be displayed by default.</t>
+  </si>
+  <si>
+    <t>TC_HD_012</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the page numbers on desktop category</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse over the desktop Icon  .
+2.Click on the Show all folders link.
+3. scroll down the to see page numbers
+4. click on page numbers.</t>
+  </si>
+  <si>
+    <t>TC_HD_013</t>
+  </si>
+  <si>
+    <t>user should redirected to previous page i.e page 1.</t>
+  </si>
+  <si>
+    <t>TC_HD_014</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the previous button when on page 1</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse over the desktop Icon  .
+2.Click on the Show all folders link.
+3. scroll down the to see page numbers
+4. click on the page number 2
+5. click on the previous page button.</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse over the desktop Icon  .
+2.Click on the Show all folders link.
+3. scroll down the to see page numbers
+4. click on the page number 1
+5. click on the previous page button.</t>
+  </si>
+  <si>
+    <t>The previous button should be disabled and stop working.</t>
+  </si>
+  <si>
+    <t>TC_HD_015</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse over the desktop Icon  .
+2.Click on the Show all folders link.
+3. scroll down the to see page numbers
+4. click on the page number 1
+5. click on the next page button.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the previous button when pag numer is 2 or onwards.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the next button when on page 1.</t>
+  </si>
+  <si>
+    <t>User should navigate to the next page ie. Page 2 and onwards.</t>
+  </si>
+  <si>
+    <t>TC_HD_016</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse over the desktop Icon  .
+2.Click on the Show all folders link.
+3. scroll down the to see page numbers
+4. click on last page number
+5. click on the next page button.</t>
+  </si>
+  <si>
+    <t>The next button should be disabled and stop working.</t>
+  </si>
+  <si>
+    <t>page should navigate to the selected page number.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the next button when on last page.</t>
+  </si>
+  <si>
+    <t>Validate the Login of the app using registered Email and non-registered password.</t>
+  </si>
+  <si>
+    <t>TC_SDM_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hover the mouse over the desktop Icon. .
+</t>
+  </si>
+  <si>
+    <t>TC_SDM_002</t>
+  </si>
+  <si>
+    <t>All the sub heads should be dipslayed in the dropdown menu below the desktop link i.e .
+1. Mac.
+2. Windows.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the sub links with th number of items mentioned beside the link</t>
+  </si>
+  <si>
+    <t>Quantity of the items for sub heads should be displayed beside their relevant links.</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse over the desktop Icon. .
+2. Click on the show all folder button.
+3. Click on the Mac link in the vertical menu left on the home page.</t>
+  </si>
+  <si>
+    <t>All the items under Mac link should be displayed below.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the functionality of the sub head "Mac" by clicking on it if quantity is 0. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the functionality of the sub head "Mac" by clicking on it if quantity is not 0. </t>
+  </si>
+  <si>
+    <t>message should be displayed about no items under this tab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(TS_010.1)
+Sub Desktop Mac. </t>
+  </si>
+  <si>
+    <t>Validate the functionality sub heads of desktop Link in the header of the home page.</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse over the desktop Icon. .
+2. Click on the show all folder button.
+3. Click on the Windows link in the vertical menu left on the home page.</t>
+  </si>
+  <si>
+    <t>All the items under Windows link should be displayed below according to the quantity  mentioned bseid the respective link.</t>
+  </si>
+  <si>
+    <t>TC_HD_017</t>
+  </si>
+  <si>
+    <t>TC_HD_018</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the next button when there is only 1 page.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the previous button when there is only 1 page.</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse over the desktop Icon  .
+2.Click on the Show all folders link.
+3. scroll down the to see page numbers</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the maximum numbers of items displayed by default</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse over the desktop Icon  .
+2.Click on the Show all folders link.
+3. Click on the list Icon.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the item display interface by selecting list style</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">The Item card should be displayed in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>list</t>
     </r>
     <r>
       <rPr>
@@ -1507,7 +1773,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>grid</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1517,203 +1783,395 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> style.</t>
+      <t>style.</t>
     </r>
   </si>
   <si>
-    <t>TC_HD_006</t>
-  </si>
-  <si>
-    <t>(TS_010)
-Header Desktop</t>
-  </si>
-  <si>
-    <t>Validate the functionality of the sorting Items</t>
-  </si>
-  <si>
-    <t>TC_HD_007</t>
-  </si>
-  <si>
-    <t>All items should be displayed with the ascending order of alphabets.</t>
-  </si>
-  <si>
-    <t>TC_HD_008</t>
-  </si>
-  <si>
-    <t>All items should be displayed with the descending order of alphabets.</t>
-  </si>
-  <si>
-    <t>TC_HD_009</t>
-  </si>
-  <si>
-    <t>Validate the functionality of the Z to A sorting of the products</t>
-  </si>
-  <si>
-    <t>Validate the functionality of the A to Z sorting of the products</t>
-  </si>
-  <si>
-    <t>All items should be displayed with the ascending order of price.</t>
-  </si>
-  <si>
-    <t>TC_HD_010</t>
-  </si>
-  <si>
-    <t>TC_HD_011</t>
-  </si>
-  <si>
-    <t>1. Hover the mouse over the desktop Icon (ER-01). .
-2.Click on the Show all folders link (ER-02).</t>
-  </si>
-  <si>
-    <t>1. Hover the mouse over the desktop Icon  .
-2.Click on the Show all folders link.
-3. Click on the Compare this product.</t>
-  </si>
-  <si>
-    <t>1. Hover the mouse over the desktop Icon  .
-2.Click on the Show all folders link.
-3. Click on the Grid Icon.</t>
-  </si>
-  <si>
-    <t>1. Hover the mouse over the desktop Icon  .
-2.Click on the Show all folders link.
-3. Click on the sort Item.</t>
+    <t>1. A to Z sorting should be displayed (ascending order).
+2. Z to A sorting should be displayed (descending order)
+3. High to Low price should be displayed (ascending order).
+4.Low to High price should be displayed (descending order).
+5. High to low rating should be displayed (ascending order.)
+6. Low to high rating should be displayed.
+7.A to Z model sorting should be displayed.
+8. Z to A model should be displayed</t>
+  </si>
+  <si>
+    <t>All items should be displayed with the descending order of price.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the High to low rating sorting of the products</t>
   </si>
   <si>
     <t>1. Hover the mouse over the desktop Icon  .
 2.Click on the Show all folders link.
 3. Click on the Sort Icon.
-4. Click on the A to Z sorting option.</t>
+4. Click on the High to low sorting option.</t>
+  </si>
+  <si>
+    <t>All items should be displayed with the descending order of rating.</t>
+  </si>
+  <si>
+    <t>All items should be displayed with the ascending order of rating.</t>
   </si>
   <si>
     <t>1. Hover the mouse over the desktop Icon  .
 2.Click on the Show all folders link.
 3. Click on the Sort Icon.
-4. Click on the Z to A sorting option.</t>
-  </si>
-  <si>
-    <t>Validate the functionality of the item display interface by selecting grid style</t>
-  </si>
-  <si>
-    <t>1. A to Z sorting should be displayed (ascending order).
-2. Z to A sorting should be displayed (descending order)
-3. High to Low should be displayed (ascending order).
-Low to High should be displayed (descending order).</t>
-  </si>
-  <si>
-    <t>Validate the functionality of the High to Low price sorting of the products</t>
+4. Click on the Low to High sorting option.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the Low to High rating sorting of the products</t>
   </si>
   <si>
     <t>1. Hover the mouse over the desktop Icon  .
 2.Click on the Show all folders link.
 3. Click on the Sort Icon.
-4. Click on the High to Low sorting option.</t>
-  </si>
-  <si>
-    <t>Validate the functionality of the Low to High price sorting of the products</t>
+4. Click on the A to Z Model option.</t>
+  </si>
+  <si>
+    <t>All items should be displayed with the ascending order of Model.</t>
+  </si>
+  <si>
+    <t>All items should be displayed with the descending order of Model.</t>
   </si>
   <si>
     <t>1. Hover the mouse over the desktop Icon  .
 2.Click on the Show all folders link.
 3. Click on the Sort Icon.
-4. Click on the Low  to High sorting option.</t>
-  </si>
-  <si>
-    <t>Validate the functionality of the number of items displayed by default</t>
+4. Click on the Z to A Model option.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the A to Z sorting of model</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the Z to A sorting of model</t>
+  </si>
+  <si>
+    <t>TC_HD_019</t>
+  </si>
+  <si>
+    <t>TC_HD_020</t>
+  </si>
+  <si>
+    <t>TC_HD_021</t>
+  </si>
+  <si>
+    <t>TC_HD_022</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the show tab.</t>
   </si>
   <si>
     <t>1. Hover the mouse over the desktop Icon  .
 2.Click on the Show all folders link.
-3. scroll down the page manually to see the number of items.</t>
-  </si>
-  <si>
-    <t>maximum 10 items should be displayed by default.</t>
-  </si>
-  <si>
-    <t>TC_HD_012</t>
-  </si>
-  <si>
-    <t>Validate the functionality of the page numbers on desktop category</t>
+3. Click on the Sort Icon.
+4. Click on the show tab beside sort by field</t>
+  </si>
+  <si>
+    <t>Number in the show tab should be displayed 10,25,50,75,100</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the maximum numbers of items displayed when selected more than default (10)</t>
+  </si>
+  <si>
+    <t>selected number of items should be displayed or if less than all should be displayed</t>
   </si>
   <si>
     <t>1. Hover the mouse over the desktop Icon  .
 2.Click on the Show all folders link.
-3. scroll down the to see page numbers
-4. click on page numbers.</t>
-  </si>
-  <si>
-    <t>TC_HD_013</t>
-  </si>
-  <si>
-    <t>user should redirected to previous page i.e page 1.</t>
-  </si>
-  <si>
-    <t>TC_HD_014</t>
-  </si>
-  <si>
-    <t>Validate the functionality of the previous button when on page 1</t>
-  </si>
-  <si>
-    <t>1. Hover the mouse over the desktop Icon  .
-2.Click on the Show all folders link.
-3. scroll down the to see page numbers
-4. click on the page number 2
-5. click on the previous page button.</t>
-  </si>
-  <si>
-    <t>1. Hover the mouse over the desktop Icon  .
-2.Click on the Show all folders link.
-3. scroll down the to see page numbers
-4. click on the page number 1
-5. click on the previous page button.</t>
-  </si>
-  <si>
-    <t>The previous button should be disabled and stop working.</t>
-  </si>
-  <si>
-    <t>TC_HD_015</t>
-  </si>
-  <si>
-    <t>1. Hover the mouse over the desktop Icon  .
-2.Click on the Show all folders link.
-3. scroll down the to see page numbers
-4. click on the page number 1
-5. click on the next page button.</t>
-  </si>
-  <si>
-    <t>Validate the functionality of the previous button when pag numer is 2 or onwards.</t>
-  </si>
-  <si>
-    <t>Validate the functionality of the next button when on page 1.</t>
-  </si>
-  <si>
-    <t>User should navigate to the next page ie. Page 2 and onwards.</t>
-  </si>
-  <si>
-    <t>TC_HD_016</t>
-  </si>
-  <si>
-    <t>1. Hover the mouse over the desktop Icon  .
-2.Click on the Show all folders link.
-3. scroll down the to see page numbers
-4. click on last page number
-5. click on the next page button.</t>
-  </si>
-  <si>
-    <t>The next button should be disabled and stop working.</t>
-  </si>
-  <si>
-    <t>page should navigate to the selected page number.</t>
-  </si>
-  <si>
-    <t>Validate the functionality of the next button when on last page.</t>
+3. Click on the show tab to select the number.
+4. Select number of items to 25.
+5. scroll down the page manually to see the number of items.</t>
+  </si>
+  <si>
+    <t>No next or previous button should be displayed.</t>
+  </si>
+  <si>
+    <t>TC_HD_023</t>
+  </si>
+  <si>
+    <t>TC_HD_024</t>
+  </si>
+  <si>
+    <t>TC_SDP_001</t>
+  </si>
+  <si>
+    <t>TC_SDP_002</t>
+  </si>
+  <si>
+    <t>TC_SDP_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(TS_010.1)
+Sub Desktop PC. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the functionality of the sub head "PC" by clicking on it if quantity is 0. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the functionality of the sub head "PC" by clicking on it. </t>
+  </si>
+  <si>
+    <t>TC_SDP_004</t>
+  </si>
+  <si>
+    <t>TC_SDP_005</t>
+  </si>
+  <si>
+    <t>Validated the functionality of the continue button located at the right bottom of the page</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse over the desktop Icon. .
+2.Click on the continue button.</t>
+  </si>
+  <si>
+    <t>User should redirected to the home page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(TS_011)
+Cart. </t>
+  </si>
+  <si>
+    <t>1. Navigate to home page of the app.
+2. Scroll down to see the product cart.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Picture of the item should be displayed.
+2. Name of the product should be displayed.
+3. Description should be displayed .
+4.Price should be displayed.
+5. amount excluding tax should be displayed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. shop cart icon should be displayed in the bottm left.
+2.heart icon should be displayed in the middle.
+3. two opposite arrow icon should be displayed in the bottom right. </t>
+  </si>
+  <si>
+    <t>Validate the basic layout of the cart across the app.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the basic layout of the icons cart across the app </t>
+  </si>
+  <si>
+    <t>Validate the functionality of the add to cart icon of the cart across the layout</t>
+  </si>
+  <si>
+    <t>1. Navigate to home page of the app.
+2. Scroll down to see the product cart.
+3. Click the add to cart icon.</t>
+  </si>
+  <si>
+    <t>Message should be displayed in the top right corner of the page titled "you have added (name of the product ) to your shopping cart".</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the add to your wish icon of the cart across the layout</t>
+  </si>
+  <si>
+    <t>1. Navigate to home page of the app.
+2. Scroll down to see the product cart.
+3. Click the add to heart icon.</t>
+  </si>
+  <si>
+    <t>Message should be displayed in the top right corner of the page titled "you have added (name of the product ) to your Wish List".</t>
+  </si>
+  <si>
+    <t>TC_CF_005</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the product comparison icon of the cart across the layout</t>
+  </si>
+  <si>
+    <t>1. Navigate to home page of the app.
+2. Scroll down to see the product cart.
+3. Click the arrow icon.</t>
+  </si>
+  <si>
+    <t>Message should be displayed in the top right corner of the page titled "you have added (name of the product ) to your product comparison".</t>
+  </si>
+  <si>
+    <t>Validate the detailed view functionality of the product cart across the app upon clicking</t>
+  </si>
+  <si>
+    <t>TC_CF_006</t>
+  </si>
+  <si>
+    <t>1. Navigate to home page of the app.
+2. Scroll down to see the product cart.
+3. Click on the cart.</t>
+  </si>
+  <si>
+    <t>selected product should be open in detailed view in the page.</t>
+  </si>
+  <si>
+    <t>TC_CF_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the functionality of the name mentioned in the brand </t>
+  </si>
+  <si>
+    <t>1. Navigate to home page of the app.
+2. Scroll down to see the product cart.
+3. Click on the cart.
+4. click on the brande name above the product code..</t>
+  </si>
+  <si>
+    <t>All the items related to the brand should be displayed in detailed view.</t>
+  </si>
+  <si>
+    <t>TC_CF_008</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the wish list in the detailed view of the cart.</t>
+  </si>
+  <si>
+    <t>1. Navigate to home page of the app.
+2. Scroll down to see the product cart.
+3. Click on the cart.
+4. click on the heart icon.</t>
+  </si>
+  <si>
+    <t>TC_CF_009</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the compares this product in the detailed view of the cart.</t>
+  </si>
+  <si>
+    <t>1. Navigate to home page of the app.
+2. Scroll down to see the product cart.
+3. Click on the cart.
+4. click on the arrown icon.</t>
+  </si>
+  <si>
+    <t>Message should be displayed in the top right corner of the page titled "you have added (name of the product ) to your make comparison list".</t>
+  </si>
+  <si>
+    <t>TC_CF_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the functionality of the quantity field </t>
+  </si>
+  <si>
+    <t>Quantity :2</t>
+  </si>
+  <si>
+    <t>1. Navigate to home page of the app.
+2. Scroll down to see the product cart.
+3. Click on the cart.
+4. click on the quantity tab.
+5. select quantity.
+6. Click Add to cart button.</t>
+  </si>
+  <si>
+    <t>TC_CF_011</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the quantity field with the value of 0</t>
+  </si>
+  <si>
+    <t>Quantity :0</t>
+  </si>
+  <si>
+    <t>Messgage should be displayed about selecting quantity.</t>
+  </si>
+  <si>
+    <t>TC_CF_012</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the main image displayed in the cart page</t>
+  </si>
+  <si>
+    <t>1. Navigate to home page of the app.
+2. Scroll down to see the product cart.
+3. Click on the cart.
+4. Click on the main picture</t>
+  </si>
+  <si>
+    <t>Image should be displayed in the fron of the screen with next and back arrow as well.</t>
+  </si>
+  <si>
+    <t>TC_CF_013</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the next arrow when the image is displayed</t>
+  </si>
+  <si>
+    <t>1. Navigate to home page of the app.
+2. Scroll down to see the product cart.
+3. Click on the cart.
+4. Click on the main picture
+5. Click on the next arrow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next Image should be displayed </t>
+  </si>
+  <si>
+    <t>TC_CF_014</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the back arrow when the image is displayed</t>
+  </si>
+  <si>
+    <t>1. Navigate to home page of the app.
+2. Scroll down to see the product cart.
+3. Click on the cart.
+4. Click on the main picture
+5. Click on the next arrow to get to the next image.
+6. Click on the back arrow.</t>
+  </si>
+  <si>
+    <t>Previous image should be displayed again.</t>
+  </si>
+  <si>
+    <t>TC_CF_015</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the Next arrow when the last image in the image list is displayed</t>
+  </si>
+  <si>
+    <t>1. Navigate to home page of the app.
+2. Scroll down to see the product cart.
+3. Click on the cart.
+4. Click on the main picture
+5. Click on the next arrow til the last image is displayed.
+6. Click on the next arrow.</t>
+  </si>
+  <si>
+    <t>the first image should be displayed again and so on.</t>
+  </si>
+  <si>
+    <t>TC_CF_016</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the back arrow when the first image in the image list is displayed</t>
+  </si>
+  <si>
+    <t>1. Navigate to home page of the app.
+2. Scroll down to see the product cart.
+3. Click on the cart.
+4. Click on the main picture
+5. Click on the back arrow.</t>
+  </si>
+  <si>
+    <t>Last image should be displayed and so on.</t>
+  </si>
+  <si>
+    <t>Cart Location</t>
+  </si>
+  <si>
+    <t>1. Home Page
+2. Search Item
+3. Brand
+4. Headers of home page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1740,6 +2198,19 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFEE0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1771,7 +2242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1804,6 +2275,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2122,8 +2605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85252F2-3AEE-49F2-BAD6-E960FB08B1A1}">
   <dimension ref="A3:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2653,25 +3136,25 @@
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>290</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2900,10 +3383,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA00A176-B6B3-414A-BBBE-5C3337E6A6E5}">
-  <dimension ref="B3:L27"/>
+  <dimension ref="B3:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2957,186 +3440,186 @@
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>338</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>343</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>346</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="C8" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="240" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="C9" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="D9" s="15" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>373</v>
+      <c r="E9" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
@@ -3144,194 +3627,725 @@
         <v>360</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>359</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="E23" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="G23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="2:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="2:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+    </row>
+    <row r="28" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+    </row>
+    <row r="29" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29"/>
+      <c r="G29" s="7"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+    </row>
+    <row r="30" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30"/>
+      <c r="G30" s="7"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+    </row>
+    <row r="31" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="1"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31" s="7"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+    </row>
+    <row r="32" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="1"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32" s="7"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+    </row>
+    <row r="33" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="1"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33" s="7"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E76FFC8-6AF5-45E9-91E5-6963CC9DEF37}">
+  <dimension ref="B3:L28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="30" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="2:12" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="E5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
+      <c r="G5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="2:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="G20" s="1"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -3362,8 +4376,6 @@
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23"/>
-      <c r="G23" s="7"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -3384,8 +4396,8 @@
     <row r="25" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="1"/>
-      <c r="D25"/>
-      <c r="E25"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
       <c r="F25"/>
       <c r="G25" s="7"/>
       <c r="I25"/>
@@ -3417,6 +4429,883 @@
       <c r="K27"/>
       <c r="L27"/>
     </row>
+    <row r="28" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="1"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28" s="7"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2325842-EA5D-4B3D-9CB2-62DF5EBB7CA5}">
+  <dimension ref="B3:L25"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="30" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="2:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+    </row>
+    <row r="19" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+    </row>
+    <row r="20" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21"/>
+      <c r="G21" s="7"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22"/>
+      <c r="G22" s="7"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23" s="7"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24" s="7"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25" s="7"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A74004-07E3-46B5-B626-71584BF2F0C2}">
+  <dimension ref="B3:M25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="6" width="37.7109375" customWidth="1"/>
+    <col min="7" max="7" width="42.42578125" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="30" style="5" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+    </row>
+    <row r="18" spans="2:13" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+    </row>
+    <row r="19" spans="2:13" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+    </row>
+    <row r="20" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+    </row>
+    <row r="21" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21"/>
+      <c r="H21" s="7"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+    </row>
+    <row r="22" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22"/>
+      <c r="H22" s="7"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23" s="7"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+    </row>
+    <row r="24" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24" s="7"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+    </row>
+    <row r="25" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25" s="7"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3426,8 +5315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D7893C-385B-435C-9500-3ED4A927959E}">
   <dimension ref="A3:L24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3545,7 +5434,7 @@
         <v>67</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>85</v>
+        <v>395</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>12</v>
@@ -3577,13 +5466,13 @@
         <v>12</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>76</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="150" x14ac:dyDescent="0.25">
@@ -3591,22 +5480,22 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>78</v>
@@ -3617,22 +5506,22 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>82</v>
@@ -3643,25 +5532,25 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3783,8 +5672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3F0C6E-4F83-4248-808F-F0D11C501F8D}">
   <dimension ref="A3:L24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3844,25 +5733,25 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
@@ -3870,25 +5759,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="135" x14ac:dyDescent="0.25">
@@ -3896,25 +5785,25 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="135" x14ac:dyDescent="0.25">
@@ -3922,25 +5811,25 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -4089,8 +5978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5DFD4C-8D59-4777-A6F8-A9BF350FBD3E}">
   <dimension ref="A3:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4150,25 +6039,25 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -4176,25 +6065,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4202,25 +6091,25 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4228,25 +6117,25 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4254,97 +6143,97 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -4466,7 +6355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04EAE3C3-64BE-43DC-AD43-5808A45074C1}">
   <dimension ref="B3:L25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -4521,94 +6410,94 @@
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="5" spans="2:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4768,7 +6657,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>0</v>
@@ -4803,28 +6692,28 @@
     </row>
     <row r="4" spans="2:13" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>173</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="2:13" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5009,8 +6898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6803A502-0750-40C8-AFEB-FF6B5A00697A}">
   <dimension ref="B3:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5064,301 +6953,301 @@
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>192</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="135" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="135" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="D11" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="135" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>213</v>
-      </c>
       <c r="E12" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="135" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="135" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="105" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>219</v>
-      </c>
       <c r="E15" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="16" spans="2:12" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
@@ -5367,22 +7256,22 @@
     </row>
     <row r="17" spans="2:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="H17" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
@@ -5391,22 +7280,22 @@
     </row>
     <row r="18" spans="2:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="5" t="s">
         <v>285</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>286</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -5547,228 +7436,228 @@
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="G4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>251</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>263</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="105" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="105" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="5" t="s">
         <v>272</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>275</v>
-      </c>
       <c r="E12" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>278</v>
-      </c>
       <c r="E13" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
@@ -5895,8 +7784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52A0115-4F76-49B9-A20E-AD5BE1DD9878}">
   <dimension ref="B3:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:G17"/>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5950,301 +7839,301 @@
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>290</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="165" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>321</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="165" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="135" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>327</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="165" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="5" t="s">
         <v>333</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>305</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>310</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>317</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\opencart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3EADC0-9D46-46DA-98CC-0E4549166648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BC557D-8A6B-4D75-BE5D-D5001D33303F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="13" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="10" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
   </bookViews>
   <sheets>
     <sheet name="TS_001 (Register)" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="TS_006.1 (Edit Information)" sheetId="8" r:id="rId7"/>
     <sheet name="TS_006.2 (Change Password)" sheetId="9" r:id="rId8"/>
     <sheet name="TS_006.3 (modify book entries)" sheetId="10" r:id="rId9"/>
-    <sheet name="TS_006.4 (modify your wishlist)" sheetId="11" r:id="rId10"/>
+    <sheet name="TS_007 (Wishlist)" sheetId="11" r:id="rId10"/>
     <sheet name="TS_010 (Header Desktop)" sheetId="12" r:id="rId11"/>
     <sheet name="TS_010.1 (Sub Desktop PC) " sheetId="15" r:id="rId12"/>
     <sheet name="TS_010.2 (Sub Desktop Mac)" sheetId="13" r:id="rId13"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="624">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -2161,10 +2161,407 @@
     <t>Cart Location</t>
   </si>
   <si>
+    <t>TC_CF_017</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the sub images displayed below the main image</t>
+  </si>
+  <si>
+    <t>1. Navigate to home page of the app.
+2. Scroll down to see the product cart.
+3. Click on the cart.
+4. Click on the any of the sub images</t>
+  </si>
+  <si>
+    <t>respective clicked image should be displayed.</t>
+  </si>
+  <si>
+    <t>TC_CF_018</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the wirte a review / ratings links</t>
+  </si>
+  <si>
     <t>1. Home Page
 2. Search Item
 3. Brand
-4. Headers of home page</t>
+4. products in the Headers of home page</t>
+  </si>
+  <si>
+    <t>1. Navigate to home page of the app.
+2. Scroll down to see the product cart.
+3. Click on the cart.
+4. Click on the write a review or rating link</t>
+  </si>
+  <si>
+    <t>the rating and review tab should be opened below the images .</t>
+  </si>
+  <si>
+    <t>TC_CF_019</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the tabs below the image section of the page</t>
+  </si>
+  <si>
+    <t>1. Navigate to home page of the app.
+2. Scroll down to see the product cart.
+3. Click on the cart.
+4. Click on the tabs respectively</t>
+  </si>
+  <si>
+    <t>the respective tab should be opened upon clickng on it</t>
+  </si>
+  <si>
+    <t>TC_CF_020</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the Description tab</t>
+  </si>
+  <si>
+    <t>1. Navigate to home page of the app.
+2. Scroll down to see the product cart.
+3. Click on the cart.
+4. scroll down to the page.</t>
+  </si>
+  <si>
+    <t>Description tab should be displayed by default.</t>
+  </si>
+  <si>
+    <t>TC_CF_021</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the Specification tab</t>
+  </si>
+  <si>
+    <t>1. Navigate to home page of the app.
+2. Scroll down to see the product cart.
+3. Click on the cart.
+4. scroll down to the page.
+5. Click on the specification tab.</t>
+  </si>
+  <si>
+    <t>Specification tab details should be displayed.</t>
+  </si>
+  <si>
+    <t>TC_CF_022</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the rating and receiw tab</t>
+  </si>
+  <si>
+    <t>1. Navigate to home page of the app.
+2. Scroll down to see the product cart.
+3. Click on the cart.
+4. scroll down to the page.
+5. Click on the reveiws tab.</t>
+  </si>
+  <si>
+    <t>TC_CF_023</t>
+  </si>
+  <si>
+    <t>1. Reveiws and ratings tabs should be displayed.
+2. User namer should be displayed by default in the "Your name tab"</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the rating and receiw tab when there is 0 review.</t>
+  </si>
+  <si>
+    <t>1. message should me displayed about no reveiws and raitings
+2. input fields for reviews and check boxes should be mentioned for ratings should be mentioned.</t>
+  </si>
+  <si>
+    <t>TC_CF_024</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the rating and receiw tab whle changing username and refreshing the page.</t>
+  </si>
+  <si>
+    <t>1. Navigate to home page of the app.
+2. Scroll down to see the product cart.
+3. Click on the cart.
+4. scroll down to the page.
+5. Click on the reveiws tab.
+6. Change the default user name.
+7. Reload the page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your Name: Haroon </t>
+  </si>
+  <si>
+    <t>TC_CF_025</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the back button.</t>
+  </si>
+  <si>
+    <t>1.Page should be reloaded
+2. Registered username should be displayed again.</t>
+  </si>
+  <si>
+    <t>User should be redirected to home page.</t>
+  </si>
+  <si>
+    <t>TC_CF_026</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the review and rating tab by submitting ratings and review with empty inut fields</t>
+  </si>
+  <si>
+    <t>1. Navigate to home page of the app.
+2. Scroll down to see the product cart.
+3. Click on the cart.
+4. scroll down to the page.
+5. Click on the reviews tab
+6. Click on the back button.</t>
+  </si>
+  <si>
+    <t>Your Name:  .
+Your review :  .
+Rating: not selected</t>
+  </si>
+  <si>
+    <t>Error should be displyed about the emtpy input fields.</t>
+  </si>
+  <si>
+    <t>TC_CF_027</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the review and rating tab by filling valid credentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your Name: Hamza  .
+Your review : It is Okay .
+Rating: 4 stars. </t>
+  </si>
+  <si>
+    <t>Notification should be displayed about submitting review and ratting succesfully.</t>
+  </si>
+  <si>
+    <t>1. Navigate to home page of the app.
+2. Scroll down to see the product cart.
+3. Click on the cart.
+4. scroll down to the page.
+5. Click on the reviews tab
+6. Leave the input fields and check boxes emtpy.
+7. Click on the continue button</t>
+  </si>
+  <si>
+    <t>1. Navigate to home page of the app.
+2. Scroll down to see the product cart.
+3. Click on the cart.
+4. scroll down to the page.
+5. Click on the reviews tab
+6. fill Your name, Your Review and rating fields
+7. Click on the continue button</t>
+  </si>
+  <si>
+    <t>TC_WL_001</t>
+  </si>
+  <si>
+    <t>(TS_007)
+Wish List</t>
+  </si>
+  <si>
+    <t>User should be directed to Wishl List page.</t>
+  </si>
+  <si>
+    <t>TC_WL_002</t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.</t>
+  </si>
+  <si>
+    <t>0 should be displayed in the bracket as there is no wish added yet.</t>
+  </si>
+  <si>
+    <t>TC_WL_003</t>
+  </si>
+  <si>
+    <t>Validate the funcionality of the number of wishes in the bracket next to wish list link in the top header if number of wishes is not 0</t>
+  </si>
+  <si>
+    <t>Validate the funcionality of the number of wishes in the bracket next to wish list link in the top header if number of wishes is 0</t>
+  </si>
+  <si>
+    <t>Value should be mentioned according to the number of wishes added.</t>
+  </si>
+  <si>
+    <t>TC_WL_004</t>
+  </si>
+  <si>
+    <t>Validate the navigation of the wish list page.</t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Click the wish list icon in the top right beside my account drop down menu.</t>
+  </si>
+  <si>
+    <t>message should be displayed in the page about no wish added in the wish list</t>
+  </si>
+  <si>
+    <t>TC_WL_005</t>
+  </si>
+  <si>
+    <t>Validtate the functionality of the conitune button in the wish list page when the wish list page is empty.</t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Click the wish list icon in the top right beside my account drop down menu.
+3. Click on the continue button.</t>
+  </si>
+  <si>
+    <t>User should be directed to Account section of the app.</t>
+  </si>
+  <si>
+    <t>Validate wish count when no item is added</t>
+  </si>
+  <si>
+    <t>TC_WL_006</t>
+  </si>
+  <si>
+    <t>Validate the functionality  of the wishlist page when wishes are added</t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Add any cart into wish list i.e featured in home page.
+3. open the wish list tab.</t>
+  </si>
+  <si>
+    <t>A table should be mentioned with the below details.
+1. Image.
+2. Product name (brand name is mentioned)
+3.Model.
+4. Stock.
+5. Unit price.
+6. Action with two icon (add to cart and delete icon)</t>
+  </si>
+  <si>
+    <t>TC_WL_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the main page of the app.
+2. Click on the wish list link.
+3. Select the currency (US Dollar) from the top left corner of the page </t>
+  </si>
+  <si>
+    <t>Currency : US Dollar</t>
+  </si>
+  <si>
+    <t>The The price should be displayed in US Dollar.</t>
+  </si>
+  <si>
+    <t>TC_WL_008</t>
+  </si>
+  <si>
+    <t>Validate the price of wish list item by selecting US Dollar from currency</t>
+  </si>
+  <si>
+    <t>Validate the price of wish list item by selecting Euro from currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the main page of the app.
+2. Click on the wish list link.
+3. Select the currency (Euro) from the top left corner of the page </t>
+  </si>
+  <si>
+    <t>The The price should be displayed in Euro.</t>
+  </si>
+  <si>
+    <t>The The price should be displayed in Pound Sterling.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the main page of the app.
+2. Click on the wish list link.
+3. Select the currency (Pound Sterling) from the top left corner of the page </t>
+  </si>
+  <si>
+    <t>TC_WL_009</t>
+  </si>
+  <si>
+    <t>Currency : Euro</t>
+  </si>
+  <si>
+    <t>Currency : Pound Sterling</t>
+  </si>
+  <si>
+    <t>TC_WL_010</t>
+  </si>
+  <si>
+    <t>Validate the price of wish list item by selecting Pound sterling from currency</t>
+  </si>
+  <si>
+    <t>Valdiate add to cart icon's functionality</t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Click on the wish list link.
+3. click on the add to cart icon.</t>
+  </si>
+  <si>
+    <t>Message should be displayed about the addition of the item added to cart.</t>
+  </si>
+  <si>
+    <t>TC_WL_011</t>
+  </si>
+  <si>
+    <t>Validate the functionality delete icon of the wishl list page</t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Click on the wish list link.
+3. click on the delete icon.</t>
+  </si>
+  <si>
+    <t>the product should be deleted with the notifiction the item hs been removed</t>
+  </si>
+  <si>
+    <t>TC_WL_012</t>
+  </si>
+  <si>
+    <t>Validate the continue butto n functionality when items are added in the wish list</t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Add any cart into wish list i.e featured in home page.
+3. open the wish list tab.
+4. Click on the continue button.</t>
+  </si>
+  <si>
+    <t>TC_WL_013</t>
+  </si>
+  <si>
+    <t>TC_WL_014</t>
+  </si>
+  <si>
+    <t>Validate the wish count number in the bracket after adding the item to wish list</t>
+  </si>
+  <si>
+    <t>Validate the wish count number in the bracket after deleting the item to wish list</t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Add any cart into wish list i.e featured in home page.
+3. check the wish list number in the header</t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Click on the wish list link.
+3. Delete the item from the wish list.
+4. check the wish list number in the header</t>
+  </si>
+  <si>
+    <t>wish list count number should be added by one</t>
+  </si>
+  <si>
+    <t>wish list count number should be deleted by one</t>
+  </si>
+  <si>
+    <t>1. wish list count is not updated after adding the item.
+2. Wish list count is updated after reloading the page</t>
+  </si>
+  <si>
+    <t>1. wish list count is not updated after deleting the item.
+2. Wish list count is updated after reloading the page</t>
   </si>
 </sst>
 </file>
@@ -3081,8 +3478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6C7363-2D5D-4868-8093-67F7E82ECE55}">
   <dimension ref="B3:L28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A5:N16"/>
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3093,7 +3490,7 @@
     <col min="6" max="6" width="42.42578125" customWidth="1"/>
     <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
     <col min="8" max="8" width="30" style="5" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" customWidth="1"/>
     <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
@@ -3136,130 +3533,331 @@
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>290</v>
+        <v>565</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>287</v>
+        <v>566</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>288</v>
+        <v>576</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>106</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>289</v>
+        <v>577</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>318</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="1"/>
+      <c r="B5" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="6" spans="2:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="1"/>
+      <c r="B6" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="11" spans="2:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="1"/>
+      <c r="B11" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="12" spans="2:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="1"/>
+      <c r="B12" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="13" spans="2:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="1"/>
+      <c r="B13" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
@@ -3385,8 +3983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA00A176-B6B3-414A-BBBE-5C3337E6A6E5}">
   <dimension ref="B3:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4744,10 +5342,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A74004-07E3-46B5-B626-71584BF2F0C2}">
-  <dimension ref="B3:M25"/>
+  <dimension ref="B3:XFD30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="D28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4816,7 +5414,7 @@
         <v>106</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>459</v>
@@ -4842,7 +5440,7 @@
         <v>106</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>459</v>
@@ -4868,7 +5466,7 @@
         <v>106</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>465</v>
@@ -4894,7 +5492,7 @@
         <v>106</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>468</v>
@@ -4920,7 +5518,7 @@
         <v>106</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>472</v>
@@ -4946,7 +5544,7 @@
         <v>106</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>476</v>
@@ -4972,7 +5570,7 @@
         <v>106</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>480</v>
@@ -4998,7 +5596,7 @@
         <v>106</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>484</v>
@@ -5024,7 +5622,7 @@
         <v>106</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>487</v>
@@ -5050,7 +5648,7 @@
         <v>106</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>492</v>
@@ -5076,7 +5674,7 @@
         <v>106</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>492</v>
@@ -5102,7 +5700,7 @@
         <v>106</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>499</v>
@@ -5128,7 +5726,7 @@
         <v>106</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>503</v>
@@ -5140,7 +5738,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13 16384:16384" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>505</v>
       </c>
@@ -5154,7 +5752,7 @@
         <v>106</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>507</v>
@@ -5170,7 +5768,7 @@
       <c r="L17"/>
       <c r="M17"/>
     </row>
-    <row r="18" spans="2:13" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13 16384:16384" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>509</v>
       </c>
@@ -5184,7 +5782,7 @@
         <v>106</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>511</v>
@@ -5200,7 +5798,7 @@
       <c r="L18"/>
       <c r="M18"/>
     </row>
-    <row r="19" spans="2:13" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13 16384:16384" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>513</v>
       </c>
@@ -5214,7 +5812,7 @@
         <v>106</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>515</v>
@@ -5230,81 +5828,316 @@
       <c r="L19"/>
       <c r="M19"/>
     </row>
-    <row r="20" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+    <row r="20" spans="2:13 16384:16384" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>521</v>
+      </c>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
     </row>
-    <row r="21" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21"/>
-      <c r="H21" s="7"/>
+    <row r="21" spans="2:13 16384:16384" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>526</v>
+      </c>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
     </row>
-    <row r="22" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22"/>
-      <c r="H22" s="7"/>
+    <row r="22" spans="2:13 16384:16384" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>530</v>
+      </c>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
     </row>
-    <row r="23" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="1"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23" s="7"/>
+    <row r="23" spans="2:13 16384:16384" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>534</v>
+      </c>
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23"/>
     </row>
-    <row r="24" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="1"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24" s="7"/>
+    <row r="24" spans="2:13 16384:16384" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
     </row>
-    <row r="25" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="1"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25" s="7"/>
+    <row r="25" spans="2:13 16384:16384" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>543</v>
+      </c>
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25"/>
+    </row>
+    <row r="26" spans="2:13 16384:16384" ht="105" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="XFD26" s="5"/>
+    </row>
+    <row r="27" spans="2:13 16384:16384" ht="105" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13 16384:16384" ht="90" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13 16384:16384" ht="120" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13 16384:16384" ht="120" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>562</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,25 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\opencart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BC557D-8A6B-4D75-BE5D-D5001D33303F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3789393F-8D80-4DC9-90D2-3E87FC459508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="10" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="14" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
   </bookViews>
   <sheets>
-    <sheet name="TS_001 (Register)" sheetId="2" r:id="rId1"/>
-    <sheet name="TS_002(Login)" sheetId="3" r:id="rId2"/>
-    <sheet name="TS_003 (Currency)" sheetId="4" r:id="rId3"/>
-    <sheet name="TS_004 (Contact)" sheetId="5" r:id="rId4"/>
-    <sheet name="TS_005 (My Account)" sheetId="6" r:id="rId5"/>
-    <sheet name="TS_006 (Account)" sheetId="7" r:id="rId6"/>
-    <sheet name="TS_006.1 (Edit Information)" sheetId="8" r:id="rId7"/>
-    <sheet name="TS_006.2 (Change Password)" sheetId="9" r:id="rId8"/>
-    <sheet name="TS_006.3 (modify book entries)" sheetId="10" r:id="rId9"/>
-    <sheet name="TS_007 (Wishlist)" sheetId="11" r:id="rId10"/>
-    <sheet name="TS_010 (Header Desktop)" sheetId="12" r:id="rId11"/>
-    <sheet name="TS_010.1 (Sub Desktop PC) " sheetId="15" r:id="rId12"/>
-    <sheet name="TS_010.2 (Sub Desktop Mac)" sheetId="13" r:id="rId13"/>
-    <sheet name="TS_011 (Cart)" sheetId="16" r:id="rId14"/>
+    <sheet name="TS_011 (Cart) (2)" sheetId="18" r:id="rId1"/>
+    <sheet name="TS_001 (Register)" sheetId="2" r:id="rId2"/>
+    <sheet name="TS_002(Login)" sheetId="3" r:id="rId3"/>
+    <sheet name="TS_003 (Currency)" sheetId="4" r:id="rId4"/>
+    <sheet name="TS_004 (Contact)" sheetId="5" r:id="rId5"/>
+    <sheet name="TS_005 (My Account)" sheetId="6" r:id="rId6"/>
+    <sheet name="TS_006 (Account)" sheetId="7" r:id="rId7"/>
+    <sheet name="TS_006.1 (Edit Information)" sheetId="8" r:id="rId8"/>
+    <sheet name="TS_006.2 (Change Password)" sheetId="9" r:id="rId9"/>
+    <sheet name="TS_006.3 (modify book entries)" sheetId="10" r:id="rId10"/>
+    <sheet name="TS_007 (Wishlist)" sheetId="11" r:id="rId11"/>
+    <sheet name="TS_008 (Shopping Cart)" sheetId="17" r:id="rId12"/>
+    <sheet name="TS_009 (Summary Bar)" sheetId="19" r:id="rId13"/>
+    <sheet name="TS_010 (Header Desktop)" sheetId="12" r:id="rId14"/>
+    <sheet name="TS_010.1 (Sub Desktop PC) " sheetId="15" r:id="rId15"/>
+    <sheet name="TS_010.2 (Sub Desktop Mac)" sheetId="13" r:id="rId16"/>
+    <sheet name="TS_011 (Cart)" sheetId="16" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,8 +49,78 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>HP</author>
+  </authors>
+  <commentList>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{933C157D-E28B-4DAF-B36F-8B6F480C3888}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>HP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+2
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>HP</author>
+  </authors>
+  <commentList>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{AA537130-0349-47C0-AC28-891D46438B92}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>HP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+2
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="779">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -2563,12 +2636,622 @@
     <t>1. wish list count is not updated after deleting the item.
 2. Wish list count is updated after reloading the page</t>
   </si>
+  <si>
+    <t>TC_SC_001</t>
+  </si>
+  <si>
+    <t>(TS_008)
+Shopping Cart</t>
+  </si>
+  <si>
+    <t>Validate the navigation of the Shopping Cart page.</t>
+  </si>
+  <si>
+    <t>TC_SC_002</t>
+  </si>
+  <si>
+    <t>Validate the layout of Shopping cart page when no item is added to cart</t>
+  </si>
+  <si>
+    <t>Message should be dispalyed "your shopping cart is empty"</t>
+  </si>
+  <si>
+    <t>TC_SC_003</t>
+  </si>
+  <si>
+    <t>Validate the functionality of Continue button when no item is added to cart</t>
+  </si>
+  <si>
+    <t>user should redirected to home page of the app</t>
+  </si>
+  <si>
+    <t>TC_SC_004</t>
+  </si>
+  <si>
+    <t>A table should be displayed with the below details.
+1. Image.
+2. Product name (brand name is mentioned)
+3.Model.
+4. quantity.
+5. Unit price.
+6. Total Amount
+7. sub total 
+8.Total</t>
+  </si>
+  <si>
+    <t>TC_SC_005</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the input field under quantity heading</t>
+  </si>
+  <si>
+    <t>Quantity : 5</t>
+  </si>
+  <si>
+    <t>Message should be displayed you have updated your cart</t>
+  </si>
+  <si>
+    <t>TC_SC_006</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the input field when quantity is 0 under quantity heading</t>
+  </si>
+  <si>
+    <t>Quantity : 0</t>
+  </si>
+  <si>
+    <t>Message should be displayed "please select valid quantity".</t>
+  </si>
+  <si>
+    <t>TC_SC_007</t>
+  </si>
+  <si>
+    <t>Validate the funcitonality of the cross icon located right to update icon.</t>
+  </si>
+  <si>
+    <t>Item should be removed and shopping cart becomes empty.</t>
+  </si>
+  <si>
+    <t>TC_SC_008</t>
+  </si>
+  <si>
+    <t>TC_SC_009</t>
+  </si>
+  <si>
+    <t>TC_SC_010</t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Add any cart into shopping cart i.e featured in home page.
+3. open the shopping cart tab.</t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Add any cart into shopping cart i.e featured in home page.
+3. open the shopping cart tab.
+4. Select any quantity.
+5.Click on the update icon</t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Add any cart into shopping cart i.e featured in home page.
+3. open the shopping cart tab.
+4. Select the quantity .
+5.Click on the update icon</t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Add any cart into shopping cart i.e featured in home page.
+3. open the shopping cart tab.
+4. Click on the cross icon.</t>
+  </si>
+  <si>
+    <t>Validate the price of shopping cart item by selecting US Dollar from currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the main page of the app.
+2. Click on the shopping cart link.
+3. Select the currency (US Dollar) from the top left corner of the page </t>
+  </si>
+  <si>
+    <t>Validate the price of shopping cart item by selecting Euro from currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the main page of the app.
+2. Click on the shopping cart link.
+3. Select the currency (Euro) from the top left corner of the page </t>
+  </si>
+  <si>
+    <t>Validate the price of shopping cart item by selecting Pound sterling from currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the main page of the app.
+2. Click on the shopping cart link.
+3. Select the currency (Pound Sterling) from the top left corner of the page </t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Click the Cart icon in the top right beside Wish List icon.</t>
+  </si>
+  <si>
+    <t>User should be directed to shopping Cart page.</t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Click the Cart icon in the top right beside Wish List icon.
+3. Click on the continue button.</t>
+  </si>
+  <si>
+    <t>Total : 1500$
+Sub-Total = 1500$
+Total = 1500$</t>
+  </si>
+  <si>
+    <t>TC_SC_011</t>
+  </si>
+  <si>
+    <t>TC_SC_012</t>
+  </si>
+  <si>
+    <t>Validate the functioanlity of  total, sub total, and total in Euro after changing quantity</t>
+  </si>
+  <si>
+    <t>Validate the functioanlity of  total, sub total, and total in US dollar after changing quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the main page of the app.
+2. Click on the shopping cart link.
+3. Select the currency (US Dollar) from the top left corner of the page 
+4. Select quantity.
+5. click on the update button. </t>
+  </si>
+  <si>
+    <t>Currency = US Dollar
+Unit price: $500
+Quantity : 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the main page of the app.
+2. Click on the shopping cart link.
+3. Select the currency (Euro) from the top left corner of the page 
+4. Select quantity.
+5. click on the update button. </t>
+  </si>
+  <si>
+    <t>Currency = Euro
+Unit price: € 477.78
+Quantity : 7</t>
+  </si>
+  <si>
+    <t>Total : € 3344.46
+Sub-Total = € 3344.46
+Total = € 3344.46</t>
+  </si>
+  <si>
+    <t>TC_SC_013</t>
+  </si>
+  <si>
+    <t>Validate the functioanlity of  total, sub total, and total in Pound Sterling after changing quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the main page of the app.
+2. Click on the shopping cart link.
+3. Select the currency (pound Sterling) from the top left corner of the page 
+4. Select quantity.
+5. click on the update button. </t>
+  </si>
+  <si>
+    <t>Currency = Pound Sterling
+Unit price: £ 395.41
+Quantity : 15</t>
+  </si>
+  <si>
+    <t>Total : £ 5931.15
+Sub-Total = £ 5931.15
+Total = £ 5931.15</t>
+  </si>
+  <si>
+    <t>TC_SC_014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the layout of the couppon code dropdown </t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Add any cart into shopping cart i.e featured in home page.
+3. open the shopping cart tab.
+4. Scroll down to the use coupon code dropdown.</t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Add any cart into shopping cart i.e featured in home page.
+3. open the shopping cart tab.
+4. Scroll down to the use coupon code dropdown.
+5.Click on the "use coupon code" dropdown</t>
+  </si>
+  <si>
+    <t>Input field should be displayed titled 'Enter your coupn here".</t>
+  </si>
+  <si>
+    <t>TC_SC_015</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the arrow when coupon code dropdown is closed</t>
+  </si>
+  <si>
+    <t>Arrow should indicate downwards</t>
+  </si>
+  <si>
+    <t>TC_SC_016</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the arrow when coupon code dropdown is opened</t>
+  </si>
+  <si>
+    <t>Arrow should indicate upwards.</t>
+  </si>
+  <si>
+    <t>TC_SC_017</t>
+  </si>
+  <si>
+    <t>Validate the coupon code functionality when input field is empty</t>
+  </si>
+  <si>
+    <t>Coupon Code: .</t>
+  </si>
+  <si>
+    <t>Message should be displayed "Please enter your coupon code"</t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Add any cart into shopping cart i.e featured in home page.
+3. open the shopping cart tab.
+4. Scroll down to the use coupon code dropdown.
+5.Click on the "use coupon code" dropdown
+6.Leave the input field empty
+7.click on the apply coupon button</t>
+  </si>
+  <si>
+    <t>The displayed message is "Your coupan discount has been removed"</t>
+  </si>
+  <si>
+    <t>TC_SC_018</t>
+  </si>
+  <si>
+    <t>Validate the coupon code functionality with invalid credentials</t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Add any cart into shopping cart i.e featured in home page.
+3. open the shopping cart tab.
+4. Scroll down to the use coupon code dropdown.
+5.Click on the "use coupon code" dropdown
+6.Fill the input field
+7.click on the apply coupon button</t>
+  </si>
+  <si>
+    <t>Coupon Code: abc123.</t>
+  </si>
+  <si>
+    <t>Error message should be displayed "Coupan code is invalid expired or reached the limit"</t>
+  </si>
+  <si>
+    <t>TC_SC_019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the layout of the use gift certificate dropdown </t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Add any cart into shopping cart i.e featured in home page.
+3. open the shopping cart tab.
+4. Scroll down to the use gift code code dropdown.
+5.Click on the "use gift code" dropdown</t>
+  </si>
+  <si>
+    <t>Input field should be displayed titled 'Enter your gift code here".</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the arrow when use gift code dropdown is closed</t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Add any cart into shopping cart i.e featured in home page.
+3. open the shopping cart tab.
+4. Scroll down to the use gift code dropdown.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the arrow when use gift code dropdown is opened</t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Add any cart into shopping cart i.e featured in home page.
+3. open the shopping cart tab.
+4. Scroll down to the use coupon code dropdown.
+5.Click on the "use gift code" dropdown</t>
+  </si>
+  <si>
+    <t>Validate the use gift code functionality when input field is empty</t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Add any cart into shopping cart i.e featured in home page.
+3. open the shopping cart tab.
+4. Scroll down to the use coupon code dropdown.
+5.Click on the "use coupon code" dropdown
+6.Leave the input field empty
+7.click on the apply gift certificat button</t>
+  </si>
+  <si>
+    <t>Message should be displayed "Please enter your gift certificate code"</t>
+  </si>
+  <si>
+    <t>The displayed message is "Your gift certificate discount has been removed"</t>
+  </si>
+  <si>
+    <t>Validate the use gift certificate functionality with invalid credentials</t>
+  </si>
+  <si>
+    <t>Error message should be displayed "gift certificate code is invalid expired or reached the limit"</t>
+  </si>
+  <si>
+    <t>TC_SC_020</t>
+  </si>
+  <si>
+    <t>TC_SC_021</t>
+  </si>
+  <si>
+    <t>TC_SC_022</t>
+  </si>
+  <si>
+    <t>TC_SC_023</t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Add any cart into shopping cart i.e featured in home page.
+3. open the shopping cart tab.
+4. Scroll down to the use gift certificate dropdown.
+5.Click on the "use gift code" dropdown
+6.Fill the input field
+7.click on the apply gift certificate button</t>
+  </si>
+  <si>
+    <t>TC_SC_024</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the continue shopping button</t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Add any cart into shopping cart i.e featured in home page.
+3. open the shopping cart tab.
+4.Click on the continue shopping button.</t>
+  </si>
+  <si>
+    <t>TC_SB_001</t>
+  </si>
+  <si>
+    <t>(TS_009)
+Summary Bar</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the sumary bar by adding item to shopping cart</t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Add any cart into shopping cart i.e featured in home page.
+3. Click on the add to cart icon</t>
+  </si>
+  <si>
+    <t>Summar cart should be updated to and item should be added by 1 and the price should be updated according to the product price.</t>
+  </si>
+  <si>
+    <t>TC_SB_002</t>
+  </si>
+  <si>
+    <t>TC_SB_003</t>
+  </si>
+  <si>
+    <t>TC_SB_004</t>
+  </si>
+  <si>
+    <t>Validate the functioanlity of  summary bar by selecting US Dollar as currency</t>
+  </si>
+  <si>
+    <t>Validate the functioanlity of  summary bar by selecting Euro as currency</t>
+  </si>
+  <si>
+    <t>Validate the functioanlity of  summary bar by selecting Pound Sterling as currency</t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Add any cart into shopping cart i.e featured in home page.
+3. Click on the add to cart icon
+4. Select currency as US Dollar</t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Add any cart into shopping cart i.e featured in home page.
+3. Click on the add to cart icon
+4. Select currency as Euro</t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Add any cart into shopping cart i.e featured in home page.
+3. Click on the add to cart icon
+4. Select currency as Pound Sterling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currency = US Dollar
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currency = Euro
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currency = Pound Sterling
+</t>
+  </si>
+  <si>
+    <t>Price should be displayed in US Dollars</t>
+  </si>
+  <si>
+    <t>Price should be displayed in Pound Sterling</t>
+  </si>
+  <si>
+    <t>Price should be displayed in Euro</t>
+  </si>
+  <si>
+    <t>TC_SB_005</t>
+  </si>
+  <si>
+    <t>Validate the display of mini cart dropdown upon clicking the shopping cart summary bar when no item is added to shopping cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the main page of the app.
+2. Click on the summary bar </t>
+  </si>
+  <si>
+    <t>Message should be displayed no item Is added to the cart.</t>
+  </si>
+  <si>
+    <t>TC_SB_006</t>
+  </si>
+  <si>
+    <t>Validate the display of mini cart dropdown upon clicking the shopping cart summary bar when atleast one item is added.</t>
+  </si>
+  <si>
+    <t>atleast 1 item</t>
+  </si>
+  <si>
+    <t>A  mini cart dropdown should be apper with the following things
+1. mage.
+2. Brand Name.
+3. number of items
+4. amount with selected currency
+5. Cross Icon.
+6. Sub total
+7. total.
+8. twol links veiw cart and checout</t>
+  </si>
+  <si>
+    <t>TC_SB_007</t>
+  </si>
+  <si>
+    <t>Validate the display of mini cart dropdown upon clicking the shopping cart summary bar when atleast more than one item is added.</t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Click on the summary bar 
+3. Select more items</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> number of Items: 5</t>
+  </si>
+  <si>
+    <t>1. Number of items should be updated to x5 .
+2.Unit price should be updated to 5 times (accodring to number of items.)
+3. Sub total and total should be updated as well.</t>
+  </si>
+  <si>
+    <t>TC_SB_008</t>
+  </si>
+  <si>
+    <t>Validated the functionality of the cross icon when only one item Is added.</t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Click on the summary bar 
+3. Select one item only.
+4. Click on the delete button or cross icon</t>
+  </si>
+  <si>
+    <t>TC_SB_009</t>
+  </si>
+  <si>
+    <t>Added item should be removed and Summary bar should be updated to 0 all.</t>
+  </si>
+  <si>
+    <t>Validated the functionality of the cross icon when more than one item Is added.</t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Click on the summary bar 
+3. Select one more items.
+4. Click on the delete button or cross icon</t>
+  </si>
+  <si>
+    <t>Added items should be removed and Summary bar should be updated to 0 all.</t>
+  </si>
+  <si>
+    <t>Validate the display of mini cart dropdown upon clicking the shopping cart summary bar two or more different items are added.</t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Click on the summary bar 
+3. Select multiple different items.</t>
+  </si>
+  <si>
+    <t>TC_SB_010</t>
+  </si>
+  <si>
+    <t>number of different items = 2</t>
+  </si>
+  <si>
+    <t>1. Two items should be displayed with their repsective prices with the selected currency
+2. Latest selected item should be dispalyed above all</t>
+  </si>
+  <si>
+    <t>TC_SB_011</t>
+  </si>
+  <si>
+    <t>Validated the functionality of the cross icon after deleting one item when more than one item Is added.</t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Click on the summary bar 
+3. Select multiple different items.
+4. Delete on of the item.</t>
+  </si>
+  <si>
+    <t>1. Deleted Item should be deleted from the summary bar.
+2. Non deleted items should be still displayed in summary bar and the price should be updated as well.</t>
+  </si>
+  <si>
+    <t>TC_SB_012</t>
+  </si>
+  <si>
+    <t>Validated the functionality of the view cart link.</t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Click on the summary bar 
+3. Click on the veiw cart link.</t>
+  </si>
+  <si>
+    <t>User should be navigated to view cart page.</t>
+  </si>
+  <si>
+    <t>TC_SB_013</t>
+  </si>
+  <si>
+    <t>Validated the functionality of the Check out link.</t>
+  </si>
+  <si>
+    <t>1. Open the main page of the app.
+2. Click on the summary bar 
+3. Click on the Check out link.</t>
+  </si>
+  <si>
+    <t>User should be navigated to checkout page.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2611,6 +3294,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2999,6 +3695,5257 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BCB05C-71B8-4924-8F00-29FEE6F8C5FF}">
+  <dimension ref="B3:XFD30"/>
+  <sheetViews>
+    <sheetView topLeftCell="D28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="6" width="37.7109375" customWidth="1"/>
+    <col min="7" max="7" width="42.42578125" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="30" style="5" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13 16384:16384" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+    </row>
+    <row r="18" spans="2:13 16384:16384" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+    </row>
+    <row r="19" spans="2:13 16384:16384" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+    </row>
+    <row r="20" spans="2:13 16384:16384" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+    </row>
+    <row r="21" spans="2:13 16384:16384" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+    </row>
+    <row r="22" spans="2:13 16384:16384" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="2:13 16384:16384" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+    </row>
+    <row r="24" spans="2:13 16384:16384" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+    </row>
+    <row r="25" spans="2:13 16384:16384" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+    </row>
+    <row r="26" spans="2:13 16384:16384" ht="105" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="XFD26" s="5"/>
+    </row>
+    <row r="27" spans="2:13 16384:16384" ht="105" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13 16384:16384" ht="90" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13 16384:16384" ht="120" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13 16384:16384" ht="120" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52A0115-4F76-49B9-A20E-AD5BE1DD9878}">
+  <dimension ref="B3:L28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="30" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24"/>
+      <c r="G24" s="7"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25"/>
+      <c r="G25" s="7"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26" s="7"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="1"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27" s="7"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+    </row>
+    <row r="28" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="1"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28" s="7"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6C7363-2D5D-4868-8093-67F7E82ECE55}">
+  <dimension ref="B3:L28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="30" style="5" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24"/>
+      <c r="G24" s="7"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25"/>
+      <c r="G25" s="7"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26" s="7"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="1"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27" s="7"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+    </row>
+    <row r="28" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="1"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28" s="7"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456FC1FC-C776-42A8-A57D-0273C0FA9AB2}">
+  <dimension ref="A3:L31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="30" style="5" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="1:12" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="1:12" s="5" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="1:12" s="5" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+    </row>
+    <row r="28" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28"/>
+      <c r="G28" s="7"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+    </row>
+    <row r="29" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="1"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29" s="7"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+    </row>
+    <row r="30" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="1"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30" s="7"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+    </row>
+    <row r="31" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="1"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31" s="7"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8CFD57-E432-491A-8ABD-6ECB66818D47}">
+  <dimension ref="A3:L31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="35.5703125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="1"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="1"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+    </row>
+    <row r="28" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28"/>
+      <c r="G28" s="7"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+    </row>
+    <row r="29" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="1"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29" s="7"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+    </row>
+    <row r="30" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="1"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30" s="7"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+    </row>
+    <row r="31" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="1"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31" s="7"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA00A176-B6B3-414A-BBBE-5C3337E6A6E5}">
+  <dimension ref="B3:L33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="30" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="240" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="2:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="2:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+    </row>
+    <row r="28" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+    </row>
+    <row r="29" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29"/>
+      <c r="G29" s="7"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+    </row>
+    <row r="30" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30"/>
+      <c r="G30" s="7"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+    </row>
+    <row r="31" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="1"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31" s="7"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+    </row>
+    <row r="32" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="1"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32" s="7"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+    </row>
+    <row r="33" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="1"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33" s="7"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E76FFC8-6AF5-45E9-91E5-6963CC9DEF37}">
+  <dimension ref="B3:L28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="30" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="2:12" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="2:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24"/>
+      <c r="G24" s="7"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25"/>
+      <c r="G25" s="7"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26" s="7"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="1"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27" s="7"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+    </row>
+    <row r="28" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="1"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28" s="7"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2325842-EA5D-4B3D-9CB2-62DF5EBB7CA5}">
+  <dimension ref="B3:L25"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="30" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="2:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+    </row>
+    <row r="19" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+    </row>
+    <row r="20" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21"/>
+      <c r="G21" s="7"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22"/>
+      <c r="G22" s="7"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23" s="7"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24" s="7"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25" s="7"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A74004-07E3-46B5-B626-71584BF2F0C2}">
+  <dimension ref="B3:XFD30"/>
+  <sheetViews>
+    <sheetView topLeftCell="D7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="6" width="37.7109375" customWidth="1"/>
+    <col min="7" max="7" width="42.42578125" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="30" style="5" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13 16384:16384" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+    </row>
+    <row r="18" spans="2:13 16384:16384" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+    </row>
+    <row r="19" spans="2:13 16384:16384" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+    </row>
+    <row r="20" spans="2:13 16384:16384" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+    </row>
+    <row r="21" spans="2:13 16384:16384" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+    </row>
+    <row r="22" spans="2:13 16384:16384" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="2:13 16384:16384" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+    </row>
+    <row r="24" spans="2:13 16384:16384" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+    </row>
+    <row r="25" spans="2:13 16384:16384" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+    </row>
+    <row r="26" spans="2:13 16384:16384" ht="105" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="XFD26" s="5"/>
+    </row>
+    <row r="27" spans="2:13 16384:16384" ht="105" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13 16384:16384" ht="90" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13 16384:16384" ht="120" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13 16384:16384" ht="120" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85252F2-3AEE-49F2-BAD6-E960FB08B1A1}">
   <dimension ref="A3:L24"/>
   <sheetViews>
@@ -3474,2677 +9421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6C7363-2D5D-4868-8093-67F7E82ECE55}">
-  <dimension ref="B3:L28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="30" style="5" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>604</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-    </row>
-    <row r="21" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-    </row>
-    <row r="22" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-    </row>
-    <row r="23" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-    </row>
-    <row r="24" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24"/>
-      <c r="G24" s="7"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-    </row>
-    <row r="25" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25"/>
-      <c r="G25" s="7"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-    </row>
-    <row r="26" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="1"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26" s="7"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-    </row>
-    <row r="27" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="1"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27" s="7"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-    </row>
-    <row r="28" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="1"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28" s="7"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA00A176-B6B3-414A-BBBE-5C3337E6A6E5}">
-  <dimension ref="B3:L33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="30" style="5" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="240" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-    </row>
-    <row r="26" spans="2:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-    </row>
-    <row r="27" spans="2:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-    </row>
-    <row r="28" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-    </row>
-    <row r="29" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29"/>
-      <c r="G29" s="7"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-    </row>
-    <row r="30" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30"/>
-      <c r="G30" s="7"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-    </row>
-    <row r="31" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="1"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31" s="7"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-    </row>
-    <row r="32" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="1"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32" s="7"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-    </row>
-    <row r="33" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-      <c r="C33" s="1"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33" s="7"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E76FFC8-6AF5-45E9-91E5-6963CC9DEF37}">
-  <dimension ref="B3:L28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="30" style="5" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="2:12" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-    </row>
-    <row r="21" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-    </row>
-    <row r="22" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-    </row>
-    <row r="23" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-    </row>
-    <row r="24" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24"/>
-      <c r="G24" s="7"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-    </row>
-    <row r="25" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25"/>
-      <c r="G25" s="7"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-    </row>
-    <row r="26" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="1"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26" s="7"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-    </row>
-    <row r="27" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="1"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27" s="7"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-    </row>
-    <row r="28" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="1"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28" s="7"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2325842-EA5D-4B3D-9CB2-62DF5EBB7CA5}">
-  <dimension ref="B3:L25"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="30" style="5" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="2:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-    </row>
-    <row r="18" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-    </row>
-    <row r="19" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-    </row>
-    <row r="20" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-    </row>
-    <row r="21" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21"/>
-      <c r="G21" s="7"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-    </row>
-    <row r="22" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22"/>
-      <c r="G22" s="7"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-    </row>
-    <row r="23" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="1"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23" s="7"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-    </row>
-    <row r="24" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="1"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24" s="7"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-    </row>
-    <row r="25" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="1"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25" s="7"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A74004-07E3-46B5-B626-71584BF2F0C2}">
-  <dimension ref="B3:XFD30"/>
-  <sheetViews>
-    <sheetView topLeftCell="D28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="6" width="37.7109375" customWidth="1"/>
-    <col min="7" max="7" width="42.42578125" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="30" style="5" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13 16384:16384" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-    </row>
-    <row r="18" spans="2:13 16384:16384" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-    </row>
-    <row r="19" spans="2:13 16384:16384" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-    </row>
-    <row r="20" spans="2:13 16384:16384" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-    </row>
-    <row r="21" spans="2:13 16384:16384" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-    </row>
-    <row r="22" spans="2:13 16384:16384" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-    </row>
-    <row r="23" spans="2:13 16384:16384" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-    </row>
-    <row r="24" spans="2:13 16384:16384" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-    </row>
-    <row r="25" spans="2:13 16384:16384" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-    </row>
-    <row r="26" spans="2:13 16384:16384" ht="105" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="XFD26" s="5"/>
-    </row>
-    <row r="27" spans="2:13 16384:16384" ht="105" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13 16384:16384" ht="90" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13 16384:16384" ht="120" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13 16384:16384" ht="120" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>562</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D7893C-385B-435C-9500-3ED4A927959E}">
   <dimension ref="A3:L24"/>
   <sheetViews>
@@ -6501,7 +9778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3F0C6E-4F83-4248-808F-F0D11C501F8D}">
   <dimension ref="A3:L24"/>
   <sheetViews>
@@ -6807,7 +10084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5DFD4C-8D59-4777-A6F8-A9BF350FBD3E}">
   <dimension ref="A3:L25"/>
   <sheetViews>
@@ -7184,7 +10461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04EAE3C3-64BE-43DC-AD43-5808A45074C1}">
   <dimension ref="B3:L25"/>
   <sheetViews>
@@ -7461,7 +10738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694B4E51-C725-4662-8C4E-E8415D3E6DC8}">
   <dimension ref="B3:M25"/>
   <sheetViews>
@@ -7727,7 +11004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6803A502-0750-40C8-AFEB-FF6B5A00697A}">
   <dimension ref="B3:L24"/>
   <sheetViews>
@@ -8210,7 +11487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4AAFB82-77EE-4783-928F-4A964EE8FE2B}">
   <dimension ref="B3:L24"/>
   <sheetViews>
@@ -8611,488 +11888,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52A0115-4F76-49B9-A20E-AD5BE1DD9878}">
-  <dimension ref="B3:L28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="30" style="5" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-    </row>
-    <row r="21" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-    </row>
-    <row r="22" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-    </row>
-    <row r="23" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-    </row>
-    <row r="24" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24"/>
-      <c r="G24" s="7"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-    </row>
-    <row r="25" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25"/>
-      <c r="G25" s="7"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-    </row>
-    <row r="26" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="1"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26" s="7"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-    </row>
-    <row r="27" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="1"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27" s="7"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-    </row>
-    <row r="28" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="1"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28" s="7"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>